--- a/premise/data/additional_inventories/lci-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-vanadium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805D519-2192-A54E-A01B-ACAED65DBCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2046165-E5D2-5940-94D6-EC7261D6DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="623">
   <si>
     <t>Activity</t>
   </si>
@@ -743,9 +743,6 @@
   </si>
   <si>
     <t>Mannheim process</t>
-  </si>
-  <si>
-    <t>iron scrap, unsorted, Recycled Content cut-off</t>
   </si>
   <si>
     <t>RER</t>
@@ -927,9 +924,6 @@
   </si>
   <si>
     <t>a2fd8c95-f2db-436a-9f24-f33b17f7975b</t>
-  </si>
-  <si>
-    <t>blast furnace gas, Recycled Content cut-off</t>
   </si>
   <si>
     <t>blast furnace gas</t>
@@ -1805,33 +1799,15 @@
     <t>H2S</t>
   </si>
   <si>
-    <t>20d4d821-f4f7-4017-8810-f822fcdf619e</t>
-  </si>
-  <si>
     <t>Based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012). based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012).</t>
   </si>
   <si>
-    <t>15dd9676-21fd-4c42-a4cc-e20c9f213b01</t>
-  </si>
-  <si>
-    <t>a636ed9e-f90a-48cb-a180-c75b1fc92cf1</t>
-  </si>
-  <si>
-    <t>blast furnace slag, Recycled Content cut-off</t>
-  </si>
-  <si>
     <t>blast furnace slag</t>
   </si>
   <si>
-    <t>4d059ced-19bf-4b7d-b6ab-90a6b4c0ffa1</t>
-  </si>
-  <si>
     <t>Amount reported by worldsteel (2010) and is representative of the average global situation in 2009. Also based on worldsteel (2010), an internal recovery (recycling) rate of 0% is assumed. Source: Worldsteel (2010). Steel industry by-products. World Steel Association: Brussels, Belgium.</t>
   </si>
   <si>
-    <t>98d3683b-565f-492d-b2df-de9de017bb28</t>
-  </si>
-  <si>
     <t>heat production, at coal coke industrial furnace 1-10MW</t>
   </si>
   <si>
@@ -1841,15 +1817,6 @@
     <t>blast furnace</t>
   </si>
   <si>
-    <t>3878512c-6b81-423f-8711-8f5ff64d905a</t>
-  </si>
-  <si>
-    <t>28f2da0b-78ef-4715-ab9a-db1a5b17b2aa</t>
-  </si>
-  <si>
-    <t>1a852b77-f350-481d-8e7f-3945e3667c96</t>
-  </si>
-  <si>
     <t>market for iron ore, crude ore, 46% Fe</t>
   </si>
   <si>
@@ -1863,12 +1830,6 @@
   </si>
   <si>
     <t>refractory, fireclay, packed</t>
-  </si>
-  <si>
-    <t>17f03698-5d71-472f-b560-380d9952c172</t>
-  </si>
-  <si>
-    <t>d3e019ee-edbe-4774-a4a6-9701cf293d05</t>
   </si>
   <si>
     <t>Source: Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073Inputs and air emissions from different sources. This dataset covers different situations in the world. As mentionned in the Geography Comment, some inputs and emissions relate to Quebec data. 
@@ -1949,9 +1910,6 @@
     <t>Calculated based on literature values and assumtion. So far there is no mention in the literature thet either allard mine or tellnes mine are being recultivated. It is assumed that the used land is recultivated after 30 years.</t>
   </si>
   <si>
-    <t>379ba5c9-5c3a-43d0-8e2d-605ad9c39e46</t>
-  </si>
-  <si>
     <t>Estimate, based on "limestone quarry operation" and "limestone production, crushed, for mill" datasets.</t>
   </si>
   <si>
@@ -1964,94 +1922,31 @@
     <t>Area of Tellnes mine (Norway) and Allard mine (Canada).</t>
   </si>
   <si>
-    <t>0930b6b8-d9c6-4462-966f-ac7495b63bed</t>
-  </si>
-  <si>
     <t>CORINE 131</t>
   </si>
   <si>
-    <t>626915e9-2424-4059-8b6a-fae47161acdf</t>
-  </si>
-  <si>
     <t>Water, well, in ground</t>
   </si>
   <si>
     <t>Estimate, based on "limestone production, crushed, for mill" dataset.</t>
   </si>
   <si>
-    <t>67c40aae-d403-464d-9649-c12695e43ad8</t>
-  </si>
-  <si>
-    <t>8957330f-d8af-4ecf-aad3-27f04773ccea</t>
-  </si>
-  <si>
-    <t>eff0389a-97da-4ce4-9365-1de4291ec8fb</t>
-  </si>
-  <si>
     <t>ilmenite - magnetite mine operation</t>
   </si>
   <si>
-    <t>48791fc7-373e-4825-ac68-d5c5fd216d1d</t>
-  </si>
-  <si>
-    <t>46f66854-d55f-472f-a570-a7aad4fdcfcc</t>
-  </si>
-  <si>
-    <t>f74e8a5e-0919-4c5b-bb58-236980a49ed2</t>
-  </si>
-  <si>
-    <t>26f457d5-9138-4502-a0b5-a3726ca8efa6</t>
-  </si>
-  <si>
-    <t>a4b558e1-3d6d-4e15-b91f-01f4eb3c2c6b</t>
-  </si>
-  <si>
     <t>Estimate based on U.S. Department of Energy (http://www1.eere.energy.gov/manufacturing/industries_technologies/mining/pdfs/mining_bandwidth.pdf) report describing energy consumption during mining of unspecified minerals.</t>
   </si>
   <si>
-    <t>1151abf1-5ac3-4518-bb20-60f003bb6a31</t>
-  </si>
-  <si>
-    <t>450c689b-248c-4b42-bd53-bd4a7278681f</t>
-  </si>
-  <si>
-    <t>4cc87eb6-20a4-4968-ab90-6d344d46755d</t>
-  </si>
-  <si>
-    <t>78144ef1-6021-401a-b6f9-64725ee63035</t>
-  </si>
-  <si>
     <t>There are two mines, where hard-ore ilmenite is being mined (Cardarelli, 2008, Materials Handbook); Tellnes mine in Norway (http://www.ngu.no/filearchive/102/bulletin436_3.pdf) and Allard Lake mine in Canada (http://apps1.gdr.nrcan.gc.ca/gsc_minerals/gquerycache/vticanada/DP/dp51.html). The annual production of these mines is 550,000 ton of ilmenite/year, respectivelly 100,000 ton of ilmenite/year. Since magnetite is produced in the same amounts the production volume is estimated to be the same as in case of ilmenite. The lifetime of hard-rock ilmenite mine is estimated to be 100 years. Both of these mines are in operation for more than 50 years and there are no signs of possible closing of the mines.</t>
   </si>
   <si>
-    <t>3ae326bd-fb3a-432b-91f7-e50b0ca22d12</t>
-  </si>
-  <si>
     <t>market for petrol, unleaded</t>
   </si>
   <si>
     <t>petrol, unleaded</t>
   </si>
   <si>
-    <t>e5ad8d28-560c-4f9a-87a2-683126258da0</t>
-  </si>
-  <si>
-    <t>e180c07f-fa94-4f7c-8a2f-32cb78f52bd6</t>
-  </si>
-  <si>
-    <t>5c727257-39a4-401f-877f-d868b8bf5674</t>
-  </si>
-  <si>
     <t>Calculated value.</t>
-  </si>
-  <si>
-    <t>70994166-77bb-4fcc-9bbd-725478ee4761</t>
-  </si>
-  <si>
-    <t>78e616a9-c7d1-40d6-9ef8-ed953c81265a</t>
-  </si>
-  <si>
-    <t>b3c58f5d-5815-487c-8b9c-4366e00d22dc</t>
   </si>
   <si>
     <t>Source: Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073This activity represents the production of secondary low-alloyed steel in an electric arc furnace (EAF). The process comprises the following operations: 1) mixing and pretreatment (if required) of ferrous materials (including alloying additions), principally ferrous scrap; 2) furnace charging and scrap melting; 3) steel and scrap tapping; 4) secondary metallurgical treatment in a ladle furnace; and 5) casting (continuous and/or ingot).
@@ -2072,103 +1967,16 @@
     <t>Weighted average of amounts in regional datasets.</t>
   </si>
   <si>
-    <t>38321e66-f6ab-4908-b26f-c17267559bc5</t>
-  </si>
-  <si>
     <t>Cl-</t>
   </si>
   <si>
-    <t>6d25e386-4ef9-4d40-85c6-e694f523a4da</t>
-  </si>
-  <si>
     <t>Cr+6</t>
   </si>
   <si>
-    <t>a9ec0c9b-982a-4329-99ae-dab1f9fb62d3</t>
-  </si>
-  <si>
-    <t>478e8437-1c21-4032-8438-872a6b5ddcdf</t>
-  </si>
-  <si>
-    <t>3498230f-f7d4-4af1-94a9-d53ac7732027</t>
-  </si>
-  <si>
-    <t>817c3650-4fed-4ef2-b9b6-404a198834e6</t>
-  </si>
-  <si>
-    <t>ed1e33fb-3841-47d9-8fe7-4bc760403972</t>
-  </si>
-  <si>
-    <t>fef44ccb-917e-4c8d-bb35-a1898827b659</t>
-  </si>
-  <si>
-    <t>3cecca5b-1111-40d1-8013-2b57d85bfaf8</t>
-  </si>
-  <si>
-    <t>a94ce0ad-46f5-407c-b445-671e353875f0</t>
-  </si>
-  <si>
-    <t>4dc46eeb-42ba-4cfd-b0d0-e0db022e99b6</t>
-  </si>
-  <si>
-    <t>4b2da64e-4ba7-4801-bfaf-fc3f1eb439b7</t>
-  </si>
-  <si>
-    <t>b0f4c2fb-5081-474a-8ffa-1457da8345db</t>
-  </si>
-  <si>
     <t>market for electric arc furnace secondary metallurgy slag</t>
   </si>
   <si>
     <t>electric arc furnace secondary metallurgy slag</t>
-  </si>
-  <si>
-    <t>74af75f3-056c-47ff-b44d-db20aa48c18d</t>
-  </si>
-  <si>
-    <t>7494eb5f-c18b-5389-834d-131fd06c29ea</t>
-  </si>
-  <si>
-    <t>80cb4670-bd66-40b7-b84a-3dc350fbce80</t>
-  </si>
-  <si>
-    <t>4052f31f-cd94-4b86-b075-210914586a0f</t>
-  </si>
-  <si>
-    <t>605da5db-cf6a-4535-aba0-f172e1126b47</t>
-  </si>
-  <si>
-    <t>6e316c64-0481-4832-b097-296e14c0b02f</t>
-  </si>
-  <si>
-    <t>dad26920-f1cf-43b6-9407-5ad790c426d8</t>
-  </si>
-  <si>
-    <t>1e87e7db-557d-490d-b0bf-946d78833e56</t>
-  </si>
-  <si>
-    <t>41f415f9-0146-4ad8-9247-8f7f7a155001</t>
-  </si>
-  <si>
-    <t>d7432632-40dc-4af8-8125-cb70dd9742c5</t>
-  </si>
-  <si>
-    <t>cc815fc8-594f-4c70-ba2a-9e295dec8304</t>
-  </si>
-  <si>
-    <t>d7a15d6e-8959-4841-8404-b2094db330a7</t>
-  </si>
-  <si>
-    <t>898aa4d5-58b6-44c4-b3d3-25a4a5b36f3b</t>
-  </si>
-  <si>
-    <t>23fccced-e1e5-421d-9abe-5b59c51a862e</t>
-  </si>
-  <si>
-    <t>c63bd8df-00c0-4071-aec7-7d4cd4c4597f</t>
-  </si>
-  <si>
-    <t>705f483c-0d06-4f1c-9be9-7d54b88c4015</t>
   </si>
   <si>
     <t>treatment of electric arc furnace dust, residual material landfill</t>
@@ -2206,6 +2014,12 @@
 Geography:  Data are taken from blast furnace plants across Europe and are considered representative of the average situation globally. 
 Technology:  Typical blast furnace process
 Time period:  Data are mostly compiled from reports published between 2005 and 2010 but are considered representative of modern operations. </t>
+  </si>
+  <si>
+    <t>market for blast furnace gas</t>
+  </si>
+  <si>
+    <t>market for blast furnace slag</t>
   </si>
 </sst>
 </file>
@@ -2565,21 +2379,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
-  <dimension ref="A1:T518"/>
+  <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>679</v>
+        <v>615</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
@@ -2587,10 +2402,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2804,7 +2619,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="B20">
         <v>-6.5000000000000002E-2</v>
@@ -2890,7 +2705,7 @@
         <v>0.5</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -2924,13 +2739,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" t="s">
         <v>198</v>
@@ -2950,7 +2765,7 @@
         <v>3.16</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -2964,7 +2779,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28">
         <v>0.93</v>
@@ -3024,7 +2839,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31">
         <v>-6.3200000000000006E-2</v>
@@ -3067,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -3075,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>683</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3083,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -3091,7 +2906,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -3099,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -3115,7 +2930,7 @@
         <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -3146,40 +2961,40 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" t="s">
         <v>244</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>245</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>246</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>247</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>248</v>
-      </c>
-      <c r="M42" t="s">
-        <v>249</v>
       </c>
       <c r="N42" t="s">
         <v>1</v>
       </c>
       <c r="O42" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" t="s">
         <v>250</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>251</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>252</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>253</v>
-      </c>
-      <c r="S42" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -3199,7 +3014,7 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -3211,10 +3026,10 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="N43" t="s">
+        <v>255</v>
+      </c>
+      <c r="O43" t="s">
         <v>256</v>
-      </c>
-      <c r="O43" t="s">
-        <v>257</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3240,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -3252,10 +3067,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3266,7 +3081,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B45">
         <v>2.7386127875258301E-8</v>
@@ -3281,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -3293,10 +3108,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3307,7 +3122,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B46">
         <v>1.3868418961177301E-7</v>
@@ -3322,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -3334,10 +3149,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3363,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -3375,10 +3190,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3389,7 +3204,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48">
         <v>0.204696179355145</v>
@@ -3413,10 +3228,10 @@
         <v>0.30199337741082999</v>
       </c>
       <c r="N48" t="s">
+        <v>268</v>
+      </c>
+      <c r="O48" t="s">
         <v>269</v>
-      </c>
-      <c r="O48" t="s">
-        <v>270</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3427,7 +3242,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49">
         <v>4.1149999999999997E-5</v>
@@ -3454,10 +3269,10 @@
         <v>0.83737685661833294</v>
       </c>
       <c r="N49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3468,7 +3283,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50">
         <v>4.08166632639171E-7</v>
@@ -3483,7 +3298,7 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -3495,10 +3310,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3509,7 +3324,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B51">
         <v>6.8410525505948304E-7</v>
@@ -3524,7 +3339,7 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -3536,10 +3351,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -3565,7 +3380,7 @@
         <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3577,10 +3392,10 @@
         <v>0.2083266665599966</v>
       </c>
       <c r="N52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3615,10 +3430,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3629,7 +3444,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B54">
         <v>4.47437146423942E-5</v>
@@ -3653,10 +3468,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -3682,7 +3497,7 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3694,10 +3509,10 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="N55" t="s">
+        <v>284</v>
+      </c>
+      <c r="O55" t="s">
         <v>285</v>
-      </c>
-      <c r="O55" t="s">
-        <v>286</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3723,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -3735,10 +3550,10 @@
         <v>0.1232882800593795</v>
       </c>
       <c r="N56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -3749,16 +3564,16 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -3773,10 +3588,10 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
+        <v>287</v>
+      </c>
+      <c r="O57" t="s">
         <v>288</v>
-      </c>
-      <c r="O57" t="s">
-        <v>289</v>
       </c>
       <c r="Q57">
         <v>1137179252766.3799</v>
@@ -3784,13 +3599,13 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>621</v>
       </c>
       <c r="B58">
-        <v>1.9900000000000001E-2</v>
+        <v>-1.9900000000000001E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -3824,16 +3639,16 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B60">
         <v>-8.1418299973658893E-3</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -3851,13 +3666,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L60" t="s">
+        <v>293</v>
+      </c>
+      <c r="N60" t="s">
+        <v>294</v>
+      </c>
+      <c r="O60" t="s">
         <v>295</v>
-      </c>
-      <c r="N60" t="s">
-        <v>296</v>
-      </c>
-      <c r="O60" t="s">
-        <v>297</v>
       </c>
       <c r="Q60">
         <v>22056728786.656799</v>
@@ -3868,13 +3683,13 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B61">
         <v>-1.12541700026341E-2</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -3895,13 +3710,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N61" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q61">
         <v>22056728786.656799</v>
@@ -3912,13 +3727,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B62">
         <v>-3.0079999999999999E-4</v>
       </c>
       <c r="C62" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -3939,13 +3754,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L62" t="s">
+        <v>299</v>
+      </c>
+      <c r="N62" t="s">
+        <v>300</v>
+      </c>
+      <c r="O62" t="s">
         <v>301</v>
-      </c>
-      <c r="N62" t="s">
-        <v>302</v>
-      </c>
-      <c r="O62" t="s">
-        <v>303</v>
       </c>
       <c r="Q62">
         <v>342063519.23212701</v>
@@ -3956,7 +3771,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B63">
         <v>-0.10489759999999999</v>
@@ -3983,13 +3798,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q63">
         <v>119287374384.987</v>
@@ -4000,13 +3815,13 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B64">
         <v>-3.0079999999999999E-4</v>
       </c>
       <c r="C64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -4027,13 +3842,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q64">
         <v>342063519.23212701</v>
@@ -4044,13 +3859,13 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B65">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -4071,13 +3886,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -4088,13 +3903,13 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B66">
         <v>1.4422205101856E-2</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -4115,13 +3930,13 @@
         <v>0.23916521486202799</v>
       </c>
       <c r="L66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O66" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -4159,13 +3974,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L67" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O67" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -4203,13 +4018,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L68" t="s">
+        <v>319</v>
+      </c>
+      <c r="N68" t="s">
+        <v>320</v>
+      </c>
+      <c r="O68" t="s">
         <v>321</v>
-      </c>
-      <c r="N68" t="s">
-        <v>322</v>
-      </c>
-      <c r="O68" t="s">
-        <v>323</v>
       </c>
       <c r="Q68">
         <v>643285245.60114896</v>
@@ -4220,13 +4035,13 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B69">
         <v>-6.6299999999999999E-5</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -4247,13 +4062,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L69" t="s">
+        <v>324</v>
+      </c>
+      <c r="N69" t="s">
+        <v>325</v>
+      </c>
+      <c r="O69" t="s">
         <v>326</v>
-      </c>
-      <c r="N69" t="s">
-        <v>327</v>
-      </c>
-      <c r="O69" t="s">
-        <v>328</v>
       </c>
       <c r="Q69">
         <v>75394984.458410993</v>
@@ -4291,13 +4106,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L70" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O70" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -4335,13 +4150,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O71" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -4412,13 +4227,13 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B75">
         <v>-1.3416407864998701E-3</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -4439,13 +4254,13 @@
         <v>0.30199337741082999</v>
       </c>
       <c r="L75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q75">
         <v>1525686067.0728199</v>
@@ -4456,7 +4271,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B76">
         <v>2.086E-2</v>
@@ -4465,7 +4280,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -4485,7 +4300,7 @@
         <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -4507,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -4539,7 +4354,7 @@
         <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -4570,40 +4385,40 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86" t="s">
         <v>244</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>245</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>246</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>247</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>248</v>
-      </c>
-      <c r="M86" t="s">
-        <v>249</v>
       </c>
       <c r="N86" t="s">
         <v>1</v>
       </c>
       <c r="O86" t="s">
+        <v>249</v>
+      </c>
+      <c r="P86" t="s">
         <v>250</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>251</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>252</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>253</v>
-      </c>
-      <c r="S86" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -4623,7 +4438,7 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -4635,7 +4450,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O87" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -4661,7 +4476,7 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I88">
         <v>2</v>
@@ -4673,7 +4488,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -4684,7 +4499,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B89">
         <v>3.6500000000000003E-8</v>
@@ -4699,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -4711,7 +4526,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O89" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -4737,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -4749,7 +4564,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -4760,7 +4575,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B91">
         <v>1.254E-6</v>
@@ -4775,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -4787,7 +4602,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -4798,7 +4613,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B92">
         <v>2.3050000000000001E-7</v>
@@ -4813,7 +4628,7 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -4825,7 +4640,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -4851,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -4863,7 +4678,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -4898,7 +4713,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O94" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -4909,7 +4724,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B95">
         <v>5.2000000000000002E-6</v>
@@ -4924,7 +4739,7 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -4936,7 +4751,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -4962,7 +4777,7 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -4974,7 +4789,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O96" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -4985,7 +4800,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B97">
         <v>1.8080000000000001E-6</v>
@@ -5000,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -5012,7 +4827,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -5023,7 +4838,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B98">
         <v>2.238E-6</v>
@@ -5038,7 +4853,7 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -5050,7 +4865,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -5061,7 +4876,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B99">
         <v>7.0050000000000001E-7</v>
@@ -5076,7 +4891,7 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -5088,7 +4903,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -5114,7 +4929,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -5126,7 +4941,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>0</v>
@@ -5161,7 +4976,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -5172,7 +4987,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B102">
         <v>1.6595999999999999E-4</v>
@@ -5196,7 +5011,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -5207,7 +5022,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B103">
         <v>5.8575000000000001E-5</v>
@@ -5231,7 +5046,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O103" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -5242,7 +5057,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B104">
         <v>1.6595999999999999E-4</v>
@@ -5266,7 +5081,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O104" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -5301,7 +5116,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -5327,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -5339,7 +5154,7 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="O106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -5365,7 +5180,7 @@
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I107">
         <v>2</v>
@@ -5377,10 +5192,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N107" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O107" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -5406,7 +5221,7 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -5418,10 +5233,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N108" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -5447,7 +5262,7 @@
         <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -5459,10 +5274,10 @@
         <v>0.23366642891095851</v>
       </c>
       <c r="N109" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -5473,7 +5288,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B110">
         <v>2.2940000000000001E-5</v>
@@ -5488,7 +5303,7 @@
         <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -5500,7 +5315,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O110" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -5535,13 +5350,13 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
+        <v>369</v>
+      </c>
+      <c r="N111" t="s">
+        <v>370</v>
+      </c>
+      <c r="O111" t="s">
         <v>371</v>
-      </c>
-      <c r="N111" t="s">
-        <v>372</v>
-      </c>
-      <c r="O111" t="s">
-        <v>373</v>
       </c>
       <c r="Q111">
         <v>66239548000</v>
@@ -5576,13 +5391,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N112" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O112" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q112">
         <v>0</v>
@@ -5620,13 +5435,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N113" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O113" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -5664,13 +5479,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L114" t="s">
+        <v>376</v>
+      </c>
+      <c r="N114" t="s">
+        <v>377</v>
+      </c>
+      <c r="O114" t="s">
         <v>378</v>
-      </c>
-      <c r="N114" t="s">
-        <v>379</v>
-      </c>
-      <c r="O114" t="s">
-        <v>380</v>
       </c>
       <c r="Q114">
         <v>635899660.79999995</v>
@@ -5708,13 +5523,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L115" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N115" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O115" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q115">
         <v>6147030054.3999996</v>
@@ -5772,13 +5587,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L117" t="s">
+        <v>381</v>
+      </c>
+      <c r="N117" t="s">
+        <v>382</v>
+      </c>
+      <c r="O117" t="s">
         <v>383</v>
-      </c>
-      <c r="N117" t="s">
-        <v>384</v>
-      </c>
-      <c r="O117" t="s">
-        <v>385</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -5816,13 +5631,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L118" t="s">
+        <v>319</v>
+      </c>
+      <c r="N118" t="s">
+        <v>377</v>
+      </c>
+      <c r="O118" t="s">
         <v>321</v>
-      </c>
-      <c r="N118" t="s">
-        <v>379</v>
-      </c>
-      <c r="O118" t="s">
-        <v>323</v>
       </c>
       <c r="Q118">
         <v>331197740</v>
@@ -5833,13 +5648,13 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B119">
         <v>0.38674999999999998</v>
       </c>
       <c r="C119" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -5860,13 +5675,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L119" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N119" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O119" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -5904,13 +5719,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L120" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N120" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O120" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -5948,13 +5763,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L121" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N121" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O121" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -5992,13 +5807,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L122" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N122" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O122" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -6036,13 +5851,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L123" t="s">
+        <v>390</v>
+      </c>
+      <c r="N123" t="s">
+        <v>391</v>
+      </c>
+      <c r="O123" t="s">
         <v>392</v>
-      </c>
-      <c r="N123" t="s">
-        <v>393</v>
-      </c>
-      <c r="O123" t="s">
-        <v>394</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -6084,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>682</v>
+        <v>618</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -6092,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -6124,7 +5939,7 @@
         <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
@@ -6163,7 +5978,7 @@
         <v>187</v>
       </c>
       <c r="D135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -6174,16 +5989,16 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B136">
         <v>0.36707802470940898</v>
       </c>
       <c r="C136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E136" t="s">
         <v>6</v>
@@ -6197,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
@@ -6205,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6262,7 +6077,7 @@
         <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
@@ -6292,7 +6107,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6341,7 +6156,7 @@
         <v>187</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -6355,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -6363,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
@@ -6371,7 +6186,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -6379,7 +6194,7 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
@@ -6403,7 +6218,7 @@
         <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
@@ -6454,7 +6269,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B160">
         <v>3.2358900000000003E-2</v>
@@ -6488,7 +6303,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B162">
         <v>0.28254944641739999</v>
@@ -6539,13 +6354,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B165">
         <v>0.13861725499999999</v>
       </c>
       <c r="C165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -6554,12 +6369,12 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B166">
         <v>9.0939999999999993E-2</v>
@@ -6579,13 +6394,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B167">
         <v>0.04</v>
       </c>
       <c r="C167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -6594,18 +6409,18 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B168">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C168" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D168" t="s">
         <v>6</v>
@@ -6614,12 +6429,12 @@
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B169">
         <v>2.4E-2</v>
@@ -6634,18 +6449,18 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B170">
         <v>0.13206000000000001</v>
       </c>
       <c r="C170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -6654,18 +6469,18 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B171">
         <v>2.47E-2</v>
       </c>
       <c r="C171" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D171" t="s">
         <v>198</v>
@@ -6679,13 +6494,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B172">
         <v>2.2577489371428598E-3</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
@@ -6699,13 +6514,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B173">
         <v>0.27442155024368597</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -6719,13 +6534,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B174">
         <v>-2.3742571000000001E-2</v>
       </c>
       <c r="C174" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -6734,7 +6549,7 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -6745,7 +6560,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D175" t="s">
         <v>198</v>
@@ -6762,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
@@ -6770,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
@@ -6778,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
@@ -6786,7 +6601,7 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -6802,7 +6617,7 @@
         <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -6833,45 +6648,45 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
+        <v>243</v>
+      </c>
+      <c r="I185" t="s">
         <v>244</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>245</v>
       </c>
-      <c r="J185" t="s">
+      <c r="K185" t="s">
         <v>246</v>
       </c>
-      <c r="K185" t="s">
+      <c r="L185" t="s">
         <v>247</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>248</v>
-      </c>
-      <c r="M185" t="s">
-        <v>249</v>
       </c>
       <c r="N185" t="s">
         <v>1</v>
       </c>
       <c r="O185" t="s">
+        <v>249</v>
+      </c>
+      <c r="P185" t="s">
         <v>250</v>
       </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>251</v>
       </c>
-      <c r="Q185" t="s">
+      <c r="R185" t="s">
         <v>252</v>
       </c>
-      <c r="R185" t="s">
+      <c r="S185" t="s">
         <v>253</v>
-      </c>
-      <c r="S185" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B186">
         <v>1.902E-10</v>
@@ -6886,7 +6701,7 @@
         <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -6898,10 +6713,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N186" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O186" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -6912,7 +6727,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B187">
         <v>9.5090000000000005E-11</v>
@@ -6927,7 +6742,7 @@
         <v>20</v>
       </c>
       <c r="H187" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I187">
         <v>2</v>
@@ -6939,10 +6754,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N187" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O187" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -6968,7 +6783,7 @@
         <v>20</v>
       </c>
       <c r="H188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -6980,10 +6795,10 @@
         <v>9.6436507609929542E-2</v>
       </c>
       <c r="N188" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O188" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -7009,7 +6824,7 @@
         <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I189">
         <v>2</v>
@@ -7021,10 +6836,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N189" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O189" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q189">
         <v>0</v>
@@ -7035,7 +6850,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190">
         <v>1.521E-9</v>
@@ -7050,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="H190" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I190">
         <v>2</v>
@@ -7062,10 +6877,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N190" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O190" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -7076,7 +6891,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B191">
         <v>1.902E-10</v>
@@ -7091,7 +6906,7 @@
         <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I191">
         <v>2</v>
@@ -7103,10 +6918,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N191" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O191" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q191">
         <v>0</v>
@@ -7117,7 +6932,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B192">
         <v>1.902E-10</v>
@@ -7132,7 +6947,7 @@
         <v>20</v>
       </c>
       <c r="H192" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -7144,10 +6959,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N192" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O192" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -7173,7 +6988,7 @@
         <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -7185,10 +7000,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N193" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O193" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q193">
         <v>0</v>
@@ -7199,7 +7014,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B194">
         <v>6.0700000000000003E-6</v>
@@ -7214,7 +7029,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I194">
         <v>2</v>
@@ -7226,10 +7041,10 @@
         <v>0.2238302928559939</v>
       </c>
       <c r="N194" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O194" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q194">
         <v>0</v>
@@ -7255,7 +7070,7 @@
         <v>20</v>
       </c>
       <c r="H195" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I195">
         <v>2</v>
@@ -7267,10 +7082,10 @@
         <v>0.2238302928559939</v>
       </c>
       <c r="N195" t="s">
+        <v>431</v>
+      </c>
+      <c r="O195" t="s">
         <v>433</v>
-      </c>
-      <c r="O195" t="s">
-        <v>435</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -7281,7 +7096,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B196">
         <v>3.6160000000000001E-7</v>
@@ -7296,7 +7111,7 @@
         <v>20</v>
       </c>
       <c r="H196" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I196">
         <v>2</v>
@@ -7308,10 +7123,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N196" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O196" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -7322,7 +7137,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B197">
         <v>1.902E-10</v>
@@ -7337,7 +7152,7 @@
         <v>20</v>
       </c>
       <c r="H197" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I197">
         <v>2</v>
@@ -7349,10 +7164,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N197" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O197" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q197">
         <v>0</v>
@@ -7363,7 +7178,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B198">
         <v>5.7049999999999998E-8</v>
@@ -7378,7 +7193,7 @@
         <v>20</v>
       </c>
       <c r="H198" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -7390,10 +7205,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N198" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O198" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -7404,7 +7219,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B199">
         <v>2.472E-11</v>
@@ -7419,7 +7234,7 @@
         <v>20</v>
       </c>
       <c r="H199" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I199">
         <v>2</v>
@@ -7431,10 +7246,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N199" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O199" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -7445,7 +7260,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B200">
         <v>3.0300000000000001E-9</v>
@@ -7460,7 +7275,7 @@
         <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -7472,10 +7287,10 @@
         <v>0.81246538387798406</v>
       </c>
       <c r="N200" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O200" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -7501,7 +7316,7 @@
         <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -7513,10 +7328,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N201" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O201" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -7527,7 +7342,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B202">
         <v>1.287E-9</v>
@@ -7551,10 +7366,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N202" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O202" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -7565,7 +7380,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B203">
         <v>1.902E-10</v>
@@ -7580,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="H203" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I203">
         <v>2</v>
@@ -7592,10 +7407,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N203" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O203" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -7621,7 +7436,7 @@
         <v>20</v>
       </c>
       <c r="H204" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -7633,10 +7448,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N204" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O204" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q204">
         <v>0</v>
@@ -7662,7 +7477,7 @@
         <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -7674,10 +7489,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N205" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O205" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q205">
         <v>0</v>
@@ -7688,7 +7503,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B206">
         <v>1.039E-5</v>
@@ -7712,10 +7527,10 @@
         <v>0.55560777532356398</v>
       </c>
       <c r="N206" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O206" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -7726,7 +7541,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B207">
         <v>1.7960000000000001E-5</v>
@@ -7750,10 +7565,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N207" t="s">
+        <v>451</v>
+      </c>
+      <c r="O207" t="s">
         <v>453</v>
-      </c>
-      <c r="O207" t="s">
-        <v>455</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -7764,7 +7579,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B208">
         <v>1.2310000000000001E-5</v>
@@ -7788,10 +7603,10 @@
         <v>0.35874782229304197</v>
       </c>
       <c r="N208" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O208" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -7817,7 +7632,7 @@
         <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I209">
         <v>2</v>
@@ -7829,10 +7644,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O209" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q209">
         <v>0</v>
@@ -7843,7 +7658,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B210">
         <v>1.73E-9</v>
@@ -7858,7 +7673,7 @@
         <v>20</v>
       </c>
       <c r="H210" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -7870,10 +7685,10 @@
         <v>0.81246538387798406</v>
       </c>
       <c r="N210" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O210" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -7899,7 +7714,7 @@
         <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I211">
         <v>2</v>
@@ -7911,10 +7726,10 @@
         <v>9.6436507609929542E-2</v>
       </c>
       <c r="N211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O211" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -7949,10 +7764,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O212" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q212">
         <v>0</v>
@@ -7978,7 +7793,7 @@
         <v>20</v>
       </c>
       <c r="H213" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I213">
         <v>2</v>
@@ -7990,10 +7805,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N213" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>0</v>
@@ -8019,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -8031,10 +7846,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N214" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -8045,7 +7860,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B215">
         <v>7.6069999999999997E-10</v>
@@ -8060,7 +7875,7 @@
         <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I215">
         <v>2</v>
@@ -8072,10 +7887,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N215" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O215" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q215">
         <v>0</v>
@@ -8086,16 +7901,16 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E216" t="s">
         <v>7</v>
@@ -8110,13 +7925,13 @@
         <v>1</v>
       </c>
       <c r="L216" t="s">
+        <v>464</v>
+      </c>
+      <c r="N216" t="s">
+        <v>465</v>
+      </c>
+      <c r="O216" t="s">
         <v>466</v>
-      </c>
-      <c r="N216" t="s">
-        <v>467</v>
-      </c>
-      <c r="O216" t="s">
-        <v>468</v>
       </c>
       <c r="Q216">
         <v>10100000000</v>
@@ -8151,13 +7966,13 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L217" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N217" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O217" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -8168,13 +7983,13 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B218">
         <v>1.528E-2</v>
       </c>
       <c r="C218" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -8195,13 +8010,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L218" t="s">
+        <v>471</v>
+      </c>
+      <c r="N218" t="s">
+        <v>472</v>
+      </c>
+      <c r="O218" t="s">
         <v>473</v>
-      </c>
-      <c r="N218" t="s">
-        <v>474</v>
-      </c>
-      <c r="O218" t="s">
-        <v>475</v>
       </c>
       <c r="Q218">
         <v>0</v>
@@ -8212,16 +8027,16 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B219">
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="C219" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D219" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8259,13 +8074,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L220" t="s">
+        <v>476</v>
+      </c>
+      <c r="N220" t="s">
+        <v>477</v>
+      </c>
+      <c r="O220" t="s">
         <v>478</v>
-      </c>
-      <c r="N220" t="s">
-        <v>479</v>
-      </c>
-      <c r="O220" t="s">
-        <v>480</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -8303,13 +8118,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L221" t="s">
+        <v>479</v>
+      </c>
+      <c r="N221" t="s">
+        <v>480</v>
+      </c>
+      <c r="O221" t="s">
         <v>481</v>
-      </c>
-      <c r="N221" t="s">
-        <v>482</v>
-      </c>
-      <c r="O221" t="s">
-        <v>483</v>
       </c>
       <c r="Q221">
         <v>1009596</v>
@@ -8347,13 +8162,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L222" t="s">
+        <v>482</v>
+      </c>
+      <c r="N222" t="s">
+        <v>483</v>
+      </c>
+      <c r="O222" t="s">
         <v>484</v>
-      </c>
-      <c r="N222" t="s">
-        <v>485</v>
-      </c>
-      <c r="O222" t="s">
-        <v>486</v>
       </c>
       <c r="Q222">
         <v>0</v>
@@ -8391,13 +8206,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L223" t="s">
+        <v>485</v>
+      </c>
+      <c r="N223" t="s">
+        <v>486</v>
+      </c>
+      <c r="O223" t="s">
         <v>487</v>
-      </c>
-      <c r="N223" t="s">
-        <v>488</v>
-      </c>
-      <c r="O223" t="s">
-        <v>489</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -8435,13 +8250,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L224" t="s">
+        <v>488</v>
+      </c>
+      <c r="N224" t="s">
+        <v>489</v>
+      </c>
+      <c r="O224" t="s">
         <v>490</v>
-      </c>
-      <c r="N224" t="s">
-        <v>491</v>
-      </c>
-      <c r="O224" t="s">
-        <v>492</v>
       </c>
       <c r="Q224">
         <v>37955.800000000003</v>
@@ -8452,7 +8267,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B225">
         <v>0.66080000000000005</v>
@@ -8472,7 +8287,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B226">
         <v>0.13534860007647501</v>
@@ -8499,13 +8314,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L226" t="s">
+        <v>493</v>
+      </c>
+      <c r="N226" t="s">
+        <v>494</v>
+      </c>
+      <c r="O226" t="s">
         <v>495</v>
-      </c>
-      <c r="N226" t="s">
-        <v>496</v>
-      </c>
-      <c r="O226" t="s">
-        <v>497</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -8543,13 +8358,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L227" t="s">
+        <v>496</v>
+      </c>
+      <c r="N227" t="s">
+        <v>497</v>
+      </c>
+      <c r="O227" t="s">
         <v>498</v>
-      </c>
-      <c r="N227" t="s">
-        <v>499</v>
-      </c>
-      <c r="O227" t="s">
-        <v>500</v>
       </c>
       <c r="Q227">
         <v>26825.599999999999</v>
@@ -8560,16 +8375,16 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B228">
         <v>0.98470000000000002</v>
       </c>
       <c r="C228" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D228" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E228" t="s">
         <v>7</v>
@@ -8583,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
@@ -8591,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
@@ -8599,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
@@ -8607,7 +8422,7 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
@@ -8631,7 +8446,7 @@
         <v>213</v>
       </c>
       <c r="B236" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
@@ -8662,45 +8477,45 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
+        <v>243</v>
+      </c>
+      <c r="I238" t="s">
         <v>244</v>
       </c>
-      <c r="I238" t="s">
+      <c r="J238" t="s">
         <v>245</v>
       </c>
-      <c r="J238" t="s">
+      <c r="K238" t="s">
         <v>246</v>
       </c>
-      <c r="K238" t="s">
+      <c r="L238" t="s">
         <v>247</v>
       </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
         <v>248</v>
-      </c>
-      <c r="M238" t="s">
-        <v>249</v>
       </c>
       <c r="N238" t="s">
         <v>1</v>
       </c>
       <c r="O238" t="s">
+        <v>249</v>
+      </c>
+      <c r="P238" t="s">
         <v>250</v>
       </c>
-      <c r="P238" t="s">
+      <c r="Q238" t="s">
         <v>251</v>
       </c>
-      <c r="Q238" t="s">
+      <c r="R238" t="s">
         <v>252</v>
       </c>
-      <c r="R238" t="s">
+      <c r="S238" t="s">
         <v>253</v>
-      </c>
-      <c r="S238" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B239">
         <v>3E-9</v>
@@ -8715,7 +8530,7 @@
         <v>20</v>
       </c>
       <c r="H239" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I239">
         <v>2</v>
@@ -8727,10 +8542,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N239" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O239" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -8741,7 +8556,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B240">
         <v>2.0371548787E-9</v>
@@ -8756,7 +8571,7 @@
         <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -8768,10 +8583,10 @@
         <v>0.55247171873318546</v>
       </c>
       <c r="N240" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O240" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q240">
         <v>0</v>
@@ -8782,7 +8597,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B241">
         <v>7.4390859654000001E-9</v>
@@ -8797,7 +8612,7 @@
         <v>20</v>
       </c>
       <c r="H241" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -8809,10 +8624,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O241" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q241">
         <v>0</v>
@@ -8838,7 +8653,7 @@
         <v>20</v>
       </c>
       <c r="H242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -8850,10 +8665,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N242" t="s">
+        <v>255</v>
+      </c>
+      <c r="O242" t="s">
         <v>256</v>
-      </c>
-      <c r="O242" t="s">
-        <v>257</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -8879,7 +8694,7 @@
         <v>20</v>
       </c>
       <c r="H243" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -8891,10 +8706,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -8905,7 +8720,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B244">
         <v>2.1221687021000001E-8</v>
@@ -8920,7 +8735,7 @@
         <v>20</v>
       </c>
       <c r="H244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -8932,10 +8747,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N244" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O244" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q244">
         <v>0</v>
@@ -8946,7 +8761,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B245">
         <v>3.3777951387999999E-8</v>
@@ -8961,7 +8776,7 @@
         <v>20</v>
       </c>
       <c r="H245" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I245">
         <v>2</v>
@@ -8973,10 +8788,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N245" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O245" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -9002,7 +8817,7 @@
         <v>20</v>
       </c>
       <c r="H246" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I246">
         <v>2</v>
@@ -9014,10 +8829,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N246" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O246" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -9028,7 +8843,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B247">
         <v>3.4447641429E-5</v>
@@ -9043,7 +8858,7 @@
         <v>20</v>
       </c>
       <c r="H247" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I247">
         <v>2</v>
@@ -9055,10 +8870,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O247" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -9084,7 +8899,7 @@
         <v>20</v>
       </c>
       <c r="H248" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -9096,10 +8911,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O248" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -9110,7 +8925,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249">
         <v>3.8439214351999999E-7</v>
@@ -9125,7 +8940,7 @@
         <v>20</v>
       </c>
       <c r="H249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I249">
         <v>2</v>
@@ -9137,10 +8952,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O249" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -9151,7 +8966,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B250">
         <v>4.2824759194E-8</v>
@@ -9166,7 +8981,7 @@
         <v>20</v>
       </c>
       <c r="H250" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I250">
         <v>2</v>
@@ -9178,10 +8993,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O250" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -9192,7 +9007,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B251">
         <v>4.5497252663999999E-9</v>
@@ -9207,7 +9022,7 @@
         <v>20</v>
       </c>
       <c r="H251" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I251">
         <v>2</v>
@@ -9219,10 +9034,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O251" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -9248,7 +9063,7 @@
         <v>20</v>
       </c>
       <c r="H252" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I252">
         <v>2</v>
@@ -9260,10 +9075,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N252" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O252" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q252">
         <v>0</v>
@@ -9274,7 +9089,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B253">
         <v>1.9782568084000002E-5</v>
@@ -9298,10 +9113,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O253" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -9312,7 +9127,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B254">
         <v>1.5108937751999999E-8</v>
@@ -9327,7 +9142,7 @@
         <v>20</v>
       </c>
       <c r="H254" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I254">
         <v>2</v>
@@ -9339,10 +9154,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O254" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -9368,7 +9183,7 @@
         <v>20</v>
       </c>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I255">
         <v>2</v>
@@ -9380,10 +9195,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O255" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -9403,13 +9218,13 @@
         <v>7</v>
       </c>
       <c r="F256" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G256" t="s">
         <v>20</v>
       </c>
       <c r="H256" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -9421,10 +9236,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O256" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -9459,10 +9274,10 @@
         <v>0.55247171873318546</v>
       </c>
       <c r="N257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O257" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -9473,7 +9288,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B258">
         <v>1.20415E-4</v>
@@ -9494,10 +9309,10 @@
         <v>1.20415E-4</v>
       </c>
       <c r="N258" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -9505,7 +9320,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B259">
         <v>9.3775800000000004E-5</v>
@@ -9529,10 +9344,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N259" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O259" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -9543,7 +9358,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B260">
         <v>1.9602500000000001E-5</v>
@@ -9567,10 +9382,10 @@
         <v>0.35387144558440992</v>
       </c>
       <c r="N260" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O260" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q260">
         <v>0</v>
@@ -9605,10 +9420,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N261" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O261" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -9619,7 +9434,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B262">
         <v>5.1253292576999998E-8</v>
@@ -9634,7 +9449,7 @@
         <v>20</v>
       </c>
       <c r="H262" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I262">
         <v>2</v>
@@ -9646,10 +9461,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N262" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O262" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -9675,7 +9490,7 @@
         <v>20</v>
       </c>
       <c r="H263" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I263">
         <v>2</v>
@@ -9687,10 +9502,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N263" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O263" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -9701,7 +9516,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B264">
         <v>6.5802735504999996E-9</v>
@@ -9716,7 +9531,7 @@
         <v>20</v>
       </c>
       <c r="H264" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -9728,10 +9543,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O264" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -9742,7 +9557,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B265">
         <v>9.7519228873000004E-9</v>
@@ -9757,7 +9572,7 @@
         <v>20</v>
       </c>
       <c r="H265" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -9769,10 +9584,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N265" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O265" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -9798,7 +9613,7 @@
         <v>20</v>
       </c>
       <c r="H266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I266">
         <v>2</v>
@@ -9810,10 +9625,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O266" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -9824,16 +9639,16 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D267" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E267" t="s">
         <v>7</v>
@@ -9848,10 +9663,10 @@
         <v>1</v>
       </c>
       <c r="L267" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O267" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q267">
         <v>113558550000</v>
@@ -9859,13 +9674,13 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B268">
         <v>0.10487776</v>
       </c>
       <c r="C268" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D268" t="s">
         <v>14</v>
@@ -9879,13 +9694,13 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B269">
         <v>0.16200000000000001</v>
       </c>
       <c r="C269" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D269" t="s">
         <v>14</v>
@@ -9926,13 +9741,13 @@
         <v>0.77796208133815881</v>
       </c>
       <c r="L270" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N270" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O270" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q270">
         <v>0</v>
@@ -9952,7 +9767,7 @@
         <v>101</v>
       </c>
       <c r="D271" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E271" t="s">
         <v>7</v>
@@ -9963,13 +9778,13 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B272">
         <v>0.10785797</v>
       </c>
       <c r="C272" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D272" t="s">
         <v>14</v>
@@ -10003,16 +9818,16 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B274">
         <v>-3.2656142502726897E-5</v>
       </c>
       <c r="C274" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D274" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E274" t="s">
         <v>22</v>
@@ -10030,13 +9845,13 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="L274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N274" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O274" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q274">
         <v>4817881.6013054997</v>
@@ -10047,16 +9862,16 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B275">
         <v>-9.7702674972731194E-6</v>
       </c>
       <c r="C275" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D275" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E275" t="s">
         <v>22</v>
@@ -10074,13 +9889,13 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="L275" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N275" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O275" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q275">
         <v>4817881.6013054997</v>
@@ -10091,7 +9906,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B276">
         <v>5.3600000000000002E-2</v>
@@ -10100,7 +9915,7 @@
         <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E276" t="s">
         <v>15</v>
@@ -10111,13 +9926,13 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B277">
         <v>0.05</v>
       </c>
       <c r="C277" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D277" t="s">
         <v>14</v>
@@ -10131,16 +9946,16 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B278">
         <v>0.70660000000000001</v>
       </c>
       <c r="C278" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D278" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E278" t="s">
         <v>7</v>
@@ -10154,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.2">
@@ -10170,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="B282" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.2">
@@ -10186,7 +10001,7 @@
         <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.2">
@@ -10210,7 +10025,7 @@
         <v>213</v>
       </c>
       <c r="B287" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.2">
@@ -10243,7 +10058,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B290">
         <v>15.73</v>
@@ -10260,7 +10075,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B291">
         <v>1.44E-2</v>
@@ -10294,13 +10109,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -10309,18 +10124,18 @@
         <v>12</v>
       </c>
       <c r="G293" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B294">
         <v>0.752</v>
       </c>
       <c r="C294" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
@@ -10329,12 +10144,12 @@
         <v>13</v>
       </c>
       <c r="G294" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B295">
         <v>0.01</v>
@@ -10349,12 +10164,12 @@
         <v>13</v>
       </c>
       <c r="G295" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B296">
         <v>2.7300000000000001E-2</v>
@@ -10369,12 +10184,12 @@
         <v>13</v>
       </c>
       <c r="G296" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B297">
         <v>5.0400000000000002E-3</v>
@@ -10389,12 +10204,12 @@
         <v>13</v>
       </c>
       <c r="G297" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B298">
         <v>0.251</v>
@@ -10409,7 +10224,7 @@
         <v>13</v>
       </c>
       <c r="G298" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -10434,13 +10249,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B300">
         <v>0.55000000000000004</v>
       </c>
       <c r="C300" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D300" t="s">
         <v>15</v>
@@ -10454,13 +10269,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B301">
         <v>13.75</v>
       </c>
       <c r="C301" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D301" t="s">
         <v>17</v>
@@ -10474,7 +10289,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B302">
         <v>-1.8</v>
@@ -10489,7 +10304,7 @@
         <v>13</v>
       </c>
       <c r="G302" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -10500,23 +10315,23 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -10524,7 +10339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -10532,20 +10347,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>213</v>
       </c>
       <c r="B309" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -10568,43 +10383,25 @@
         <v>11</v>
       </c>
       <c r="H311" t="s">
+        <v>243</v>
+      </c>
+      <c r="I311" t="s">
         <v>244</v>
       </c>
-      <c r="I311" t="s">
+      <c r="J311" t="s">
         <v>245</v>
       </c>
-      <c r="J311" t="s">
+      <c r="K311" t="s">
         <v>246</v>
       </c>
-      <c r="K311" t="s">
-        <v>247</v>
-      </c>
       <c r="L311" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="M311" t="s">
-        <v>249</v>
-      </c>
-      <c r="N311" t="s">
-        <v>1</v>
-      </c>
-      <c r="O311" t="s">
-        <v>250</v>
-      </c>
-      <c r="P311" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q311" t="s">
-        <v>252</v>
-      </c>
-      <c r="R311" t="s">
         <v>253</v>
       </c>
-      <c r="S311" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -10621,7 +10418,7 @@
         <v>20</v>
       </c>
       <c r="H312" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I312">
         <v>2</v>
@@ -10632,20 +10429,14 @@
       <c r="K312">
         <v>3.8729833462074169E-2</v>
       </c>
-      <c r="N312" t="s">
-        <v>557</v>
-      </c>
-      <c r="O312" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q312">
-        <v>0</v>
-      </c>
-      <c r="S312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L312" t="s">
+        <v>555</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>116</v>
       </c>
@@ -10662,7 +10453,7 @@
         <v>20</v>
       </c>
       <c r="H313" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -10673,20 +10464,14 @@
       <c r="K313">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N313" t="s">
-        <v>557</v>
-      </c>
-      <c r="O313" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q313">
-        <v>0</v>
-      </c>
-      <c r="S313">
+      <c r="L313" t="s">
+        <v>555</v>
+      </c>
+      <c r="M313">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -10703,7 +10488,7 @@
         <v>20</v>
       </c>
       <c r="H314" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I314">
         <v>2</v>
@@ -10714,22 +10499,16 @@
       <c r="K314">
         <v>0.5490901565316938</v>
       </c>
-      <c r="N314" t="s">
-        <v>557</v>
-      </c>
-      <c r="O314" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q314">
-        <v>0</v>
-      </c>
-      <c r="S314">
+      <c r="L314" t="s">
+        <v>555</v>
+      </c>
+      <c r="M314">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B315">
         <v>1.0745E-5</v>
@@ -10744,7 +10523,7 @@
         <v>20</v>
       </c>
       <c r="H315" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -10755,22 +10534,16 @@
       <c r="K315">
         <v>0.20371548787463359</v>
       </c>
-      <c r="N315" t="s">
-        <v>557</v>
-      </c>
-      <c r="O315" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q315">
-        <v>0</v>
-      </c>
-      <c r="S315">
+      <c r="L315" t="s">
+        <v>555</v>
+      </c>
+      <c r="M315">
         <v>0.2</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B316">
         <v>6.9149000000000006E-8</v>
@@ -10785,7 +10558,7 @@
         <v>20</v>
       </c>
       <c r="H316" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -10796,22 +10569,16 @@
       <c r="K316">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N316" t="s">
-        <v>557</v>
-      </c>
-      <c r="O316" t="s">
+      <c r="L316" t="s">
+        <v>555</v>
+      </c>
+      <c r="M316">
+        <v>0.80622577482985502</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
         <v>275</v>
-      </c>
-      <c r="Q316">
-        <v>0</v>
-      </c>
-      <c r="S316">
-        <v>0.80622577482985502</v>
-      </c>
-    </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>276</v>
       </c>
       <c r="B317">
         <v>7.4468000000000002E-8</v>
@@ -10826,7 +10593,7 @@
         <v>20</v>
       </c>
       <c r="H317" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I317">
         <v>2</v>
@@ -10837,22 +10604,16 @@
       <c r="K317">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N317" t="s">
-        <v>557</v>
-      </c>
-      <c r="O317" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q317">
-        <v>0</v>
-      </c>
-      <c r="S317">
+      <c r="L317" t="s">
+        <v>555</v>
+      </c>
+      <c r="M317">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B318">
         <v>1.5956999999999999E-8</v>
@@ -10867,7 +10628,7 @@
         <v>20</v>
       </c>
       <c r="H318" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -10878,20 +10639,14 @@
       <c r="K318">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N318" t="s">
-        <v>557</v>
-      </c>
-      <c r="O318" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q318">
-        <v>0</v>
-      </c>
-      <c r="S318">
+      <c r="L318" t="s">
+        <v>555</v>
+      </c>
+      <c r="M318">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -10908,7 +10663,7 @@
         <v>20</v>
       </c>
       <c r="H319" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I319">
         <v>2</v>
@@ -10919,22 +10674,16 @@
       <c r="K319">
         <v>0.20371548787463359</v>
       </c>
-      <c r="N319" t="s">
-        <v>557</v>
-      </c>
-      <c r="O319" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q319">
-        <v>0</v>
-      </c>
-      <c r="S319">
+      <c r="L319" t="s">
+        <v>555</v>
+      </c>
+      <c r="M319">
         <v>0.2</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B320">
         <v>2.8722999999999999E-5</v>
@@ -10957,22 +10706,16 @@
       <c r="K320">
         <v>0.5490901565316938</v>
       </c>
-      <c r="N320" t="s">
-        <v>557</v>
-      </c>
-      <c r="O320" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="S320">
+      <c r="L320" t="s">
+        <v>555</v>
+      </c>
+      <c r="M320">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B321">
         <v>1.5957E-6</v>
@@ -10995,22 +10738,16 @@
       <c r="K321">
         <v>0.20371548787463359</v>
       </c>
-      <c r="N321" t="s">
-        <v>557</v>
-      </c>
-      <c r="O321" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q321">
-        <v>0</v>
-      </c>
-      <c r="S321">
+      <c r="L321" t="s">
+        <v>555</v>
+      </c>
+      <c r="M321">
         <v>0.2</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B322">
         <v>1.5957E-6</v>
@@ -11033,20 +10770,14 @@
       <c r="K322">
         <v>0.3485685011586675</v>
       </c>
-      <c r="N322" t="s">
-        <v>557</v>
-      </c>
-      <c r="O322" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q322">
-        <v>0</v>
-      </c>
-      <c r="S322">
+      <c r="L322" t="s">
+        <v>555</v>
+      </c>
+      <c r="M322">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -11063,7 +10794,7 @@
         <v>20</v>
       </c>
       <c r="H323" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I323">
         <v>2</v>
@@ -11074,20 +10805,14 @@
       <c r="K323">
         <v>3.8729833462074169E-2</v>
       </c>
-      <c r="N323" t="s">
-        <v>557</v>
-      </c>
-      <c r="O323" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q323">
-        <v>0</v>
-      </c>
-      <c r="S323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L323" t="s">
+        <v>555</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -11104,7 +10829,7 @@
         <v>20</v>
       </c>
       <c r="H324" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I324">
         <v>2</v>
@@ -11115,20 +10840,14 @@
       <c r="K324">
         <v>0.30335622624235031</v>
       </c>
-      <c r="N324" t="s">
-        <v>365</v>
-      </c>
-      <c r="O324" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q324">
-        <v>0</v>
-      </c>
-      <c r="S324">
+      <c r="L324" t="s">
+        <v>363</v>
+      </c>
+      <c r="M324">
         <v>0.2</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -11145,7 +10864,7 @@
         <v>20</v>
       </c>
       <c r="H325" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -11156,20 +10875,14 @@
       <c r="K325">
         <v>0.20174241001832011</v>
       </c>
-      <c r="N325" t="s">
-        <v>365</v>
-      </c>
-      <c r="O325" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q325">
-        <v>0</v>
-      </c>
-      <c r="S325">
+      <c r="L325" t="s">
+        <v>363</v>
+      </c>
+      <c r="M325">
         <v>0.2</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -11186,7 +10899,7 @@
         <v>20</v>
       </c>
       <c r="H326" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I326">
         <v>2</v>
@@ -11197,20 +10910,14 @@
       <c r="K326">
         <v>0.1132475165290612</v>
       </c>
-      <c r="N326" t="s">
-        <v>367</v>
-      </c>
-      <c r="O326" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q326">
-        <v>0</v>
-      </c>
-      <c r="S326">
+      <c r="L326" t="s">
+        <v>365</v>
+      </c>
+      <c r="M326">
         <v>0.1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>84</v>
       </c>
@@ -11227,7 +10934,7 @@
         <v>20</v>
       </c>
       <c r="H327" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I327">
         <v>2</v>
@@ -11238,20 +10945,14 @@
       <c r="K327">
         <v>0.1132475165290612</v>
       </c>
-      <c r="N327" t="s">
-        <v>561</v>
-      </c>
-      <c r="O327" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="S327">
+      <c r="L327" t="s">
+        <v>558</v>
+      </c>
+      <c r="M327">
         <v>0.1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>215</v>
       </c>
@@ -11262,7 +10963,7 @@
         <v>66</v>
       </c>
       <c r="D328" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E328" t="s">
         <v>7</v>
@@ -11276,25 +10977,16 @@
       <c r="J328">
         <v>1</v>
       </c>
-      <c r="L328" t="s">
-        <v>562</v>
-      </c>
-      <c r="O328" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q328">
-        <v>1099691000000</v>
-      </c>
-    </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="B329">
         <v>-0.65</v>
       </c>
       <c r="C329" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -11315,30 +11007,21 @@
         <v>0.2095232683975696</v>
       </c>
       <c r="L329" t="s">
-        <v>566</v>
-      </c>
-      <c r="N329" t="s">
-        <v>567</v>
-      </c>
-      <c r="O329" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q329">
-        <v>292923057000</v>
-      </c>
-      <c r="S329">
+        <v>560</v>
+      </c>
+      <c r="M329">
         <v>0.2</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B330">
         <v>8.7379999999999999E-2</v>
       </c>
       <c r="C330" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D330" t="s">
         <v>14</v>
@@ -11350,9 +11033,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B331">
         <v>-4.6224999999999996</v>
@@ -11370,18 +11053,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B332">
         <v>0.42399999999999999</v>
       </c>
       <c r="C332" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D332" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E332" t="s">
         <v>7</v>
@@ -11390,18 +11073,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B333">
         <v>1.59</v>
       </c>
       <c r="C333" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D333" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E333" t="s">
         <v>7</v>
@@ -11410,15 +11093,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B334">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C334" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -11439,22 +11122,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L334" t="s">
-        <v>572</v>
-      </c>
-      <c r="N334" t="s">
-        <v>557</v>
-      </c>
-      <c r="O334" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q334">
-        <v>0</v>
-      </c>
-      <c r="S334">
+        <v>555</v>
+      </c>
+      <c r="M334">
         <v>0.53851648071345037</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -11465,7 +11139,7 @@
         <v>101</v>
       </c>
       <c r="D335" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E335" t="s">
         <v>7</v>
@@ -11483,22 +11157,13 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L335" t="s">
-        <v>574</v>
-      </c>
-      <c r="N335" t="s">
-        <v>557</v>
-      </c>
-      <c r="O335" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q335">
-        <v>0</v>
-      </c>
-      <c r="S335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>146</v>
       </c>
@@ -11527,30 +11192,21 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L336" t="s">
-        <v>321</v>
-      </c>
-      <c r="N336" t="s">
-        <v>256</v>
-      </c>
-      <c r="O336" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q336">
-        <v>1561701860.0084801</v>
-      </c>
-      <c r="S336">
+        <v>255</v>
+      </c>
+      <c r="M336">
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B337">
         <v>0.1055556</v>
       </c>
       <c r="C337" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -11564,13 +11220,13 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B338">
         <v>0.45184999999999997</v>
       </c>
       <c r="C338" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -11584,13 +11240,13 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B339">
         <v>2E-3</v>
       </c>
       <c r="C339" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -11611,30 +11267,21 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L339" t="s">
-        <v>580</v>
-      </c>
-      <c r="N339" t="s">
-        <v>557</v>
-      </c>
-      <c r="O339" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q339">
-        <v>0</v>
-      </c>
-      <c r="S339">
+        <v>555</v>
+      </c>
+      <c r="M339">
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B340">
         <v>-1.21643E-4</v>
       </c>
       <c r="C340" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D340" t="s">
         <v>14</v>
@@ -11655,18 +11302,9 @@
         <v>0.2083266665599966</v>
       </c>
       <c r="L340" t="s">
-        <v>335</v>
-      </c>
-      <c r="N340" t="s">
-        <v>256</v>
-      </c>
-      <c r="O340" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q340">
-        <v>98989584.284999996</v>
-      </c>
-      <c r="S340">
+        <v>255</v>
+      </c>
+      <c r="M340">
         <v>0.2</v>
       </c>
     </row>
@@ -11683,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.2">
@@ -11715,7 +11353,7 @@
         <v>213</v>
       </c>
       <c r="B347" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.2">
@@ -11746,45 +11384,45 @@
         <v>11</v>
       </c>
       <c r="H349" t="s">
+        <v>243</v>
+      </c>
+      <c r="I349" t="s">
         <v>244</v>
       </c>
-      <c r="I349" t="s">
+      <c r="J349" t="s">
         <v>245</v>
       </c>
-      <c r="J349" t="s">
+      <c r="K349" t="s">
         <v>246</v>
       </c>
-      <c r="K349" t="s">
+      <c r="L349" t="s">
         <v>247</v>
       </c>
-      <c r="L349" t="s">
+      <c r="M349" t="s">
         <v>248</v>
-      </c>
-      <c r="M349" t="s">
-        <v>249</v>
       </c>
       <c r="N349" t="s">
         <v>1</v>
       </c>
       <c r="O349" t="s">
+        <v>249</v>
+      </c>
+      <c r="P349" t="s">
         <v>250</v>
       </c>
-      <c r="P349" t="s">
+      <c r="Q349" t="s">
         <v>251</v>
       </c>
-      <c r="Q349" t="s">
+      <c r="R349" t="s">
         <v>252</v>
       </c>
-      <c r="R349" t="s">
+      <c r="S349" t="s">
         <v>253</v>
-      </c>
-      <c r="S349" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B350">
         <v>2.0000000000000001E-13</v>
@@ -11799,7 +11437,7 @@
         <v>20</v>
       </c>
       <c r="H350" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -11811,10 +11449,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N350" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O350" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q350">
         <v>0</v>
@@ -11825,7 +11463,7 @@
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B351">
         <v>2.1E-10</v>
@@ -11840,7 +11478,7 @@
         <v>20</v>
       </c>
       <c r="H351" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I351">
         <v>2</v>
@@ -11852,7 +11490,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O351" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q351">
         <v>0</v>
@@ -11863,7 +11501,7 @@
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B352">
         <v>3.1000000000000001E-12</v>
@@ -11878,7 +11516,7 @@
         <v>20</v>
       </c>
       <c r="H352" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -11890,10 +11528,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N352" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O352" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -11919,7 +11557,7 @@
         <v>20</v>
       </c>
       <c r="H353" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I353">
         <v>2</v>
@@ -11931,7 +11569,7 @@
         <v>0.2032240143290158</v>
       </c>
       <c r="O353" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -11957,7 +11595,7 @@
         <v>20</v>
       </c>
       <c r="H354" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I354">
         <v>2</v>
@@ -11969,7 +11607,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O354" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q354">
         <v>0</v>
@@ -11980,7 +11618,7 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B355">
         <v>2.7000000000000002E-9</v>
@@ -11995,7 +11633,7 @@
         <v>20</v>
       </c>
       <c r="H355" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -12007,7 +11645,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O355" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q355">
         <v>0</v>
@@ -12018,7 +11656,7 @@
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B356">
         <v>4.9600000000000002E-11</v>
@@ -12033,7 +11671,7 @@
         <v>20</v>
       </c>
       <c r="H356" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -12045,10 +11683,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N356" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O356" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q356">
         <v>0</v>
@@ -12059,7 +11697,7 @@
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B357">
         <v>6.2000000000000002E-12</v>
@@ -12074,7 +11712,7 @@
         <v>20</v>
       </c>
       <c r="H357" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -12086,10 +11724,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N357" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O357" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q357">
         <v>0</v>
@@ -12100,7 +11738,7 @@
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B358">
         <v>4.5999999999999998E-9</v>
@@ -12115,7 +11753,7 @@
         <v>20</v>
       </c>
       <c r="H358" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -12127,7 +11765,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O358" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q358">
         <v>0</v>
@@ -12138,7 +11776,7 @@
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B359">
         <v>6.2000000000000002E-12</v>
@@ -12153,7 +11791,7 @@
         <v>20</v>
       </c>
       <c r="H359" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -12165,10 +11803,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N359" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O359" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q359">
         <v>0</v>
@@ -12194,7 +11832,7 @@
         <v>20</v>
       </c>
       <c r="H360" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -12206,10 +11844,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N360" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O360" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q360">
         <v>0</v>
@@ -12235,7 +11873,7 @@
         <v>20</v>
       </c>
       <c r="H361" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -12247,7 +11885,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O361" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q361">
         <v>0</v>
@@ -12282,7 +11920,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O362" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="Q362">
         <v>0</v>
@@ -12293,7 +11931,7 @@
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B363">
         <v>2.5000000000000001E-5</v>
@@ -12308,7 +11946,7 @@
         <v>20</v>
       </c>
       <c r="H363" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -12320,7 +11958,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O363" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q363">
         <v>0</v>
@@ -12346,7 +11984,7 @@
         <v>20</v>
       </c>
       <c r="H364" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I364">
         <v>2</v>
@@ -12358,7 +11996,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O364" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q364">
         <v>0</v>
@@ -12384,7 +12022,7 @@
         <v>20</v>
       </c>
       <c r="H365" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I365">
         <v>2</v>
@@ -12396,10 +12034,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="N365" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O365" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q365">
         <v>0</v>
@@ -12410,7 +12048,7 @@
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B366">
         <v>6.6063256317524603E-9</v>
@@ -12425,7 +12063,7 @@
         <v>20</v>
       </c>
       <c r="H366" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I366">
         <v>2</v>
@@ -12437,10 +12075,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N366" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O366" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q366">
         <v>0</v>
@@ -12451,7 +12089,7 @@
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B367">
         <v>6.6500000000000007E-8</v>
@@ -12466,7 +12104,7 @@
         <v>20</v>
       </c>
       <c r="H367" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I367">
         <v>2</v>
@@ -12478,7 +12116,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O367" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q367">
         <v>0</v>
@@ -12489,7 +12127,7 @@
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B368">
         <v>3.4748980507724499E-12</v>
@@ -12504,7 +12142,7 @@
         <v>20</v>
       </c>
       <c r="H368" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -12516,10 +12154,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N368" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O368" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q368">
         <v>0</v>
@@ -12530,7 +12168,7 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B369">
         <v>1.86E-9</v>
@@ -12545,7 +12183,7 @@
         <v>20</v>
       </c>
       <c r="H369" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -12557,10 +12195,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N369" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O369" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q369">
         <v>0</v>
@@ -12571,7 +12209,7 @@
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B370">
         <v>2.3000000000000001E-8</v>
@@ -12586,7 +12224,7 @@
         <v>20</v>
       </c>
       <c r="H370" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -12598,7 +12236,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O370" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q370">
         <v>0</v>
@@ -12609,7 +12247,7 @@
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B371">
         <v>5.5357208695270903E-11</v>
@@ -12624,7 +12262,7 @@
         <v>20</v>
       </c>
       <c r="H371" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I371">
         <v>2</v>
@@ -12636,10 +12274,10 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N371" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O371" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q371">
         <v>0</v>
@@ -12650,7 +12288,7 @@
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B372">
         <v>2.5000000000000002E-10</v>
@@ -12665,7 +12303,7 @@
         <v>20</v>
       </c>
       <c r="H372" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I372">
         <v>2</v>
@@ -12677,7 +12315,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O372" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q372">
         <v>0</v>
@@ -12688,7 +12326,7 @@
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B373">
         <v>4.5162712836537899E-13</v>
@@ -12703,7 +12341,7 @@
         <v>20</v>
       </c>
       <c r="H373" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -12715,10 +12353,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N373" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O373" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q373">
         <v>0</v>
@@ -12744,7 +12382,7 @@
         <v>20</v>
       </c>
       <c r="H374" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I374">
         <v>2</v>
@@ -12756,10 +12394,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N374" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O374" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q374">
         <v>0</v>
@@ -12770,7 +12408,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B375">
         <v>4.1999999999999997E-11</v>
@@ -12794,10 +12432,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N375" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O375" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q375">
         <v>0</v>
@@ -12808,7 +12446,7 @@
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B376">
         <v>1.4999999999999999E-8</v>
@@ -12823,7 +12461,7 @@
         <v>20</v>
       </c>
       <c r="H376" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -12835,7 +12473,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O376" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q376">
         <v>0</v>
@@ -12846,7 +12484,7 @@
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B377">
         <v>3.4748980507724499E-12</v>
@@ -12861,7 +12499,7 @@
         <v>20</v>
       </c>
       <c r="H377" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I377">
         <v>2</v>
@@ -12873,10 +12511,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N377" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O377" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q377">
         <v>0</v>
@@ -12902,7 +12540,7 @@
         <v>20</v>
       </c>
       <c r="H378" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -12914,10 +12552,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N378" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O378" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q378">
         <v>0</v>
@@ -12943,7 +12581,7 @@
         <v>20</v>
       </c>
       <c r="H379" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -12955,7 +12593,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O379" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q379">
         <v>0</v>
@@ -12981,7 +12619,7 @@
         <v>20</v>
       </c>
       <c r="H380" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -12993,10 +12631,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N380" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O380" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q380">
         <v>0</v>
@@ -13031,7 +12669,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O381" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q381">
         <v>0</v>
@@ -13042,7 +12680,7 @@
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B382">
         <v>7.4999999999999993E-5</v>
@@ -13066,7 +12704,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O382" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q382">
         <v>0</v>
@@ -13077,7 +12715,7 @@
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B383">
         <v>1.8982224367784301E-7</v>
@@ -13101,10 +12739,10 @@
         <v>0.58540584213005598</v>
       </c>
       <c r="N383" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O383" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q383">
         <v>0</v>
@@ -13115,7 +12753,7 @@
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B384">
         <v>3.2812391688682001E-7</v>
@@ -13139,10 +12777,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N384" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O384" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q384">
         <v>0</v>
@@ -13153,7 +12791,7 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B385">
         <v>2.2490007889068799E-7</v>
@@ -13177,10 +12815,10 @@
         <v>0.40336088060197411</v>
       </c>
       <c r="N385" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O385" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q385">
         <v>0</v>
@@ -13206,7 +12844,7 @@
         <v>20</v>
       </c>
       <c r="H386" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -13218,10 +12856,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N386" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O386" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q386">
         <v>0</v>
@@ -13232,7 +12870,7 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B387">
         <v>3.1606591103240501E-11</v>
@@ -13247,7 +12885,7 @@
         <v>20</v>
       </c>
       <c r="H387" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I387">
         <v>2</v>
@@ -13259,10 +12897,10 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N387" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O387" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q387">
         <v>0</v>
@@ -13288,7 +12926,7 @@
         <v>20</v>
       </c>
       <c r="H388" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I388">
         <v>2</v>
@@ -13300,7 +12938,7 @@
         <v>0.2032240143290158</v>
       </c>
       <c r="O388" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q388">
         <v>0</v>
@@ -13326,7 +12964,7 @@
         <v>20</v>
       </c>
       <c r="H389" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I389">
         <v>2</v>
@@ -13338,10 +12976,10 @@
         <v>0.20808652046684811</v>
       </c>
       <c r="N389" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O389" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q389">
         <v>0</v>
@@ -13376,10 +13014,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N390" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O390" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q390">
         <v>0</v>
@@ -13390,7 +13028,7 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B391">
         <v>8.5500000000000005E-8</v>
@@ -13405,7 +13043,7 @@
         <v>20</v>
       </c>
       <c r="H391" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -13417,7 +13055,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O391" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q391">
         <v>0</v>
@@ -13443,7 +13081,7 @@
         <v>20</v>
       </c>
       <c r="H392" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I392">
         <v>0</v>
@@ -13452,10 +13090,10 @@
         <v>8.6761728376224398E-5</v>
       </c>
       <c r="N392" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O392" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q392">
         <v>0</v>
@@ -13478,7 +13116,7 @@
         <v>20</v>
       </c>
       <c r="H393" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I393">
         <v>2</v>
@@ -13490,10 +13128,10 @@
         <v>0.28407745422683578</v>
       </c>
       <c r="N393" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O393" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q393">
         <v>0</v>
@@ -13519,7 +13157,7 @@
         <v>20</v>
       </c>
       <c r="H394" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -13531,7 +13169,7 @@
         <v>0.20024984394500789</v>
       </c>
       <c r="O394" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q394">
         <v>0</v>
@@ -13542,7 +13180,7 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B395">
         <v>5.62E-8</v>
@@ -13557,7 +13195,7 @@
         <v>20</v>
       </c>
       <c r="H395" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -13569,7 +13207,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O395" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q395">
         <v>0</v>
@@ -13580,7 +13218,7 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B396">
         <v>1.38977652325058E-11</v>
@@ -13595,7 +13233,7 @@
         <v>20</v>
       </c>
       <c r="H396" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I396">
         <v>2</v>
@@ -13607,10 +13245,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N396" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O396" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q396">
         <v>0</v>
@@ -13645,13 +13283,13 @@
         <v>1</v>
       </c>
       <c r="L397" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="N397" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O397" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q397">
         <v>473333424000</v>
@@ -13659,7 +13297,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B398">
         <v>2.3300000000000001E-2</v>
@@ -13686,13 +13324,13 @@
         <v>0.2</v>
       </c>
       <c r="L398" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="N398" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O398" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="Q398">
         <v>0</v>
@@ -13703,13 +13341,13 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B399">
         <v>0.04</v>
       </c>
       <c r="C399" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -13730,13 +13368,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L399" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="N399" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O399" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="Q399">
         <v>0</v>
@@ -13774,13 +13412,13 @@
         <v>0.89442719099991586</v>
       </c>
       <c r="L400" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N400" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O400" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q400">
         <v>0</v>
@@ -13818,13 +13456,13 @@
         <v>0.2</v>
       </c>
       <c r="L401" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="N401" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O401" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="Q401">
         <v>0</v>
@@ -13922,13 +13560,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L405" t="s">
+        <v>381</v>
+      </c>
+      <c r="N405" t="s">
+        <v>382</v>
+      </c>
+      <c r="O405" t="s">
         <v>383</v>
-      </c>
-      <c r="N405" t="s">
-        <v>384</v>
-      </c>
-      <c r="O405" t="s">
-        <v>385</v>
       </c>
       <c r="Q405">
         <v>0</v>
@@ -13966,13 +13604,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L406" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="N406" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O406" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="Q406">
         <v>0</v>
@@ -14070,13 +13708,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L410" t="s">
+        <v>482</v>
+      </c>
+      <c r="N410" t="s">
+        <v>570</v>
+      </c>
+      <c r="O410" t="s">
         <v>484</v>
-      </c>
-      <c r="N410" t="s">
-        <v>583</v>
-      </c>
-      <c r="O410" t="s">
-        <v>486</v>
       </c>
       <c r="Q410">
         <v>0</v>
@@ -14114,13 +13752,13 @@
         <v>0.2</v>
       </c>
       <c r="L411" t="s">
+        <v>485</v>
+      </c>
+      <c r="N411" t="s">
+        <v>570</v>
+      </c>
+      <c r="O411" t="s">
         <v>487</v>
-      </c>
-      <c r="N411" t="s">
-        <v>583</v>
-      </c>
-      <c r="O411" t="s">
-        <v>489</v>
       </c>
       <c r="Q411">
         <v>0</v>
@@ -14140,7 +13778,7 @@
         <v>115</v>
       </c>
       <c r="D412" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E412" t="s">
         <v>7</v>
@@ -14158,13 +13796,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L412" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="N412" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O412" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q412">
         <v>0</v>
@@ -14184,7 +13822,7 @@
         <v>115</v>
       </c>
       <c r="D413" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E413" t="s">
         <v>7</v>
@@ -14202,13 +13840,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L413" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="N413" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O413" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q413">
         <v>0</v>
@@ -14246,13 +13884,13 @@
         <v>0.2</v>
       </c>
       <c r="L414" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="N414" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O414" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q414">
         <v>0</v>
@@ -14263,7 +13901,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B415">
         <v>2.1600000000000001E-2</v>
@@ -14290,13 +13928,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L415" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="N415" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O415" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="Q415">
         <v>0</v>
@@ -14316,7 +13954,7 @@
         <v>111</v>
       </c>
       <c r="D416" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E416" t="s">
         <v>7</v>
@@ -14334,13 +13972,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L416" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="N416" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O416" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q416">
         <v>0</v>
@@ -14360,7 +13998,7 @@
         <v>111</v>
       </c>
       <c r="D417" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E417" t="s">
         <v>7</v>
@@ -14378,13 +14016,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L417" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="N417" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="O417" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q417">
         <v>0</v>
@@ -14426,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="B421" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.2">
@@ -14466,7 +14104,7 @@
         <v>213</v>
       </c>
       <c r="B426" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.2">
@@ -14497,40 +14135,22 @@
         <v>11</v>
       </c>
       <c r="H428" t="s">
+        <v>243</v>
+      </c>
+      <c r="I428" t="s">
         <v>244</v>
       </c>
-      <c r="I428" t="s">
+      <c r="J428" t="s">
         <v>245</v>
       </c>
-      <c r="J428" t="s">
+      <c r="K428" t="s">
         <v>246</v>
       </c>
-      <c r="K428" t="s">
-        <v>247</v>
-      </c>
       <c r="L428" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="M428" t="s">
-        <v>249</v>
-      </c>
-      <c r="N428" t="s">
-        <v>1</v>
-      </c>
-      <c r="O428" t="s">
-        <v>250</v>
-      </c>
-      <c r="P428" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q428" t="s">
-        <v>252</v>
-      </c>
-      <c r="R428" t="s">
         <v>253</v>
-      </c>
-      <c r="S428" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.2">
@@ -14575,22 +14195,16 @@
       <c r="K430">
         <v>0.20976176963403029</v>
       </c>
-      <c r="N430" t="s">
-        <v>605</v>
-      </c>
-      <c r="O430" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q430">
-        <v>0</v>
-      </c>
-      <c r="S430">
+      <c r="L430" t="s">
+        <v>592</v>
+      </c>
+      <c r="M430">
         <v>0.2</v>
       </c>
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B431">
         <v>1.77E-5</v>
@@ -14613,22 +14227,16 @@
       <c r="K431">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N431" t="s">
-        <v>607</v>
-      </c>
-      <c r="O431" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q431">
-        <v>0</v>
-      </c>
-      <c r="S431">
+      <c r="L431" t="s">
+        <v>593</v>
+      </c>
+      <c r="M431">
         <v>0.2</v>
       </c>
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B432">
         <v>2.3699999999999999E-4</v>
@@ -14651,22 +14259,16 @@
       <c r="K432">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N432" t="s">
-        <v>607</v>
-      </c>
-      <c r="O432" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q432">
-        <v>0</v>
-      </c>
-      <c r="S432">
+      <c r="L432" t="s">
+        <v>593</v>
+      </c>
+      <c r="M432">
         <v>0.2</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B433">
         <v>9.5699999999999995E-5</v>
@@ -14689,22 +14291,16 @@
       <c r="K433">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N433" t="s">
-        <v>607</v>
-      </c>
-      <c r="O433" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q433">
-        <v>0</v>
-      </c>
-      <c r="S433">
+      <c r="L433" t="s">
+        <v>593</v>
+      </c>
+      <c r="M433">
         <v>0.2</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B434">
         <v>0.25</v>
@@ -14719,7 +14315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>83</v>
       </c>
@@ -14736,7 +14332,7 @@
         <v>20</v>
       </c>
       <c r="H435" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="I435">
         <v>2</v>
@@ -14747,20 +14343,14 @@
       <c r="K435">
         <v>0.20976176963403029</v>
       </c>
-      <c r="N435" t="s">
-        <v>610</v>
-      </c>
-      <c r="O435" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q435">
-        <v>0</v>
-      </c>
-      <c r="S435">
+      <c r="L435" t="s">
+        <v>596</v>
+      </c>
+      <c r="M435">
         <v>0.2</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>58</v>
       </c>
@@ -14777,7 +14367,7 @@
         <v>20</v>
       </c>
       <c r="H436" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -14788,20 +14378,14 @@
       <c r="K436">
         <v>0.20976176963403029</v>
       </c>
-      <c r="N436" t="s">
-        <v>610</v>
-      </c>
-      <c r="O436" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q436">
-        <v>0</v>
-      </c>
-      <c r="S436">
+      <c r="L436" t="s">
+        <v>596</v>
+      </c>
+      <c r="M436">
         <v>0.2</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>222</v>
       </c>
@@ -14818,7 +14402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>21</v>
       </c>
@@ -14835,7 +14419,7 @@
         <v>20</v>
       </c>
       <c r="H438" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I438">
         <v>2</v>
@@ -14846,20 +14430,14 @@
       <c r="K438">
         <v>0.36058979464205582</v>
       </c>
-      <c r="N438" t="s">
-        <v>365</v>
-      </c>
-      <c r="O438" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q438">
-        <v>0</v>
-      </c>
-      <c r="S438">
+      <c r="L438" t="s">
+        <v>363</v>
+      </c>
+      <c r="M438">
         <v>0.2</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -14876,7 +14454,7 @@
         <v>20</v>
       </c>
       <c r="H439" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I439">
         <v>2</v>
@@ -14887,22 +14465,16 @@
       <c r="K439">
         <v>0.36058979464205582</v>
       </c>
-      <c r="N439" t="s">
-        <v>365</v>
-      </c>
-      <c r="O439" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q439">
-        <v>0</v>
-      </c>
-      <c r="S439">
+      <c r="L439" t="s">
+        <v>363</v>
+      </c>
+      <c r="M439">
         <v>0.2</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B440">
         <v>4.5859999999999998E-5</v>
@@ -14917,7 +14489,7 @@
         <v>20</v>
       </c>
       <c r="H440" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I440">
         <v>2</v>
@@ -14928,20 +14500,14 @@
       <c r="K440">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N440" t="s">
-        <v>615</v>
-      </c>
-      <c r="O440" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q440">
-        <v>0</v>
-      </c>
-      <c r="S440">
+      <c r="L440" t="s">
+        <v>599</v>
+      </c>
+      <c r="M440">
         <v>0.2</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>215</v>
       </c>
@@ -14966,19 +14532,10 @@
       <c r="J441">
         <v>1</v>
       </c>
-      <c r="L441" t="s">
-        <v>617</v>
-      </c>
-      <c r="O441" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q441">
-        <v>8982862200</v>
-      </c>
-    </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="B442">
         <v>-0.46</v>
@@ -14996,7 +14553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>53</v>
       </c>
@@ -15025,22 +14582,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L443" t="s">
-        <v>620</v>
-      </c>
-      <c r="N443" t="s">
-        <v>615</v>
-      </c>
-      <c r="O443" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q443">
-        <v>0</v>
-      </c>
-      <c r="S443">
+        <v>599</v>
+      </c>
+      <c r="M443">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>52</v>
       </c>
@@ -15069,22 +14617,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L444" t="s">
-        <v>622</v>
-      </c>
-      <c r="N444" t="s">
-        <v>615</v>
-      </c>
-      <c r="O444" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q444">
-        <v>0</v>
-      </c>
-      <c r="S444">
+        <v>599</v>
+      </c>
+      <c r="M444">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>75</v>
       </c>
@@ -15113,22 +14652,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L445" t="s">
-        <v>624</v>
-      </c>
-      <c r="N445" t="s">
-        <v>625</v>
-      </c>
-      <c r="O445" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q445">
-        <v>0</v>
-      </c>
-      <c r="S445">
+        <v>601</v>
+      </c>
+      <c r="M445">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>29</v>
       </c>
@@ -15148,7 +14678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>73</v>
       </c>
@@ -15177,22 +14707,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L447" t="s">
-        <v>627</v>
-      </c>
-      <c r="N447" t="s">
-        <v>615</v>
-      </c>
-      <c r="O447" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q447">
-        <v>0</v>
-      </c>
-      <c r="S447">
+        <v>599</v>
+      </c>
+      <c r="M447">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -15221,30 +14742,21 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L448" t="s">
-        <v>629</v>
-      </c>
-      <c r="N448" t="s">
-        <v>630</v>
-      </c>
-      <c r="O448" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q448">
-        <v>0</v>
-      </c>
-      <c r="S448">
+        <v>602</v>
+      </c>
+      <c r="M448">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="B449">
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="C449" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="D449" t="s">
         <v>14</v>
@@ -15265,22 +14777,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L449" t="s">
-        <v>634</v>
-      </c>
-      <c r="N449" t="s">
-        <v>625</v>
-      </c>
-      <c r="O449" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q449">
-        <v>0</v>
-      </c>
-      <c r="S449">
+        <v>601</v>
+      </c>
+      <c r="M449">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>81</v>
       </c>
@@ -15309,24 +14812,15 @@
         <v>0.29664793948382651</v>
       </c>
       <c r="L450" t="s">
-        <v>636</v>
-      </c>
-      <c r="N450" t="s">
-        <v>637</v>
-      </c>
-      <c r="O450" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q450">
-        <v>0</v>
-      </c>
-      <c r="S450">
+        <v>605</v>
+      </c>
+      <c r="M450">
         <v>0.2</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B451">
         <v>1.54E-2</v>
@@ -15353,22 +14847,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L451" t="s">
-        <v>639</v>
-      </c>
-      <c r="N451" t="s">
-        <v>625</v>
-      </c>
-      <c r="O451" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q451">
-        <v>0</v>
-      </c>
-      <c r="S451">
+        <v>601</v>
+      </c>
+      <c r="M451">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>0</v>
       </c>
@@ -15376,15 +14861,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2</v>
       </c>
@@ -15392,7 +14877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -15400,7 +14885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -15408,20 +14893,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>213</v>
       </c>
       <c r="B458" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -15444,46 +14929,28 @@
         <v>11</v>
       </c>
       <c r="H460" t="s">
+        <v>243</v>
+      </c>
+      <c r="I460" t="s">
         <v>244</v>
       </c>
-      <c r="I460" t="s">
+      <c r="J460" t="s">
         <v>245</v>
       </c>
-      <c r="J460" t="s">
+      <c r="K460" t="s">
         <v>246</v>
       </c>
-      <c r="K460" t="s">
-        <v>247</v>
-      </c>
       <c r="L460" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="M460" t="s">
-        <v>249</v>
+        <v>607</v>
       </c>
       <c r="N460" t="s">
-        <v>1</v>
-      </c>
-      <c r="O460" t="s">
-        <v>250</v>
-      </c>
-      <c r="P460" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q460" t="s">
-        <v>251</v>
-      </c>
-      <c r="R460" t="s">
-        <v>252</v>
-      </c>
-      <c r="S460" t="s">
         <v>253</v>
       </c>
-      <c r="T460" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>183</v>
       </c>
@@ -15500,7 +14967,7 @@
         <v>20</v>
       </c>
       <c r="H461" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="I461">
         <v>2</v>
@@ -15511,23 +14978,17 @@
       <c r="K461">
         <v>4.4721359549995787E-2</v>
       </c>
-      <c r="N461" t="s">
-        <v>644</v>
-      </c>
-      <c r="O461" t="s">
-        <v>645</v>
-      </c>
-      <c r="P461">
+      <c r="L461" t="s">
+        <v>609</v>
+      </c>
+      <c r="M461">
         <v>1.55606191968828E-5</v>
       </c>
-      <c r="R461">
-        <v>0</v>
-      </c>
-      <c r="T461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>151</v>
       </c>
@@ -15544,7 +15005,7 @@
         <v>20</v>
       </c>
       <c r="H462" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I462">
         <v>2</v>
@@ -15555,23 +15016,17 @@
       <c r="K462">
         <v>0.35608987629529709</v>
       </c>
-      <c r="N462" t="s">
-        <v>644</v>
-      </c>
-      <c r="O462" t="s">
-        <v>340</v>
-      </c>
-      <c r="P462">
+      <c r="L462" t="s">
+        <v>609</v>
+      </c>
+      <c r="M462">
         <v>8.4863684140488602E-7</v>
       </c>
-      <c r="R462">
-        <v>0</v>
-      </c>
-      <c r="T462">
+      <c r="N462">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>152</v>
       </c>
@@ -15588,7 +15043,7 @@
         <v>20</v>
       </c>
       <c r="H463" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -15599,25 +15054,19 @@
       <c r="K463">
         <v>0.3541186241925155</v>
       </c>
-      <c r="N463" t="s">
-        <v>644</v>
-      </c>
-      <c r="O463" t="s">
-        <v>342</v>
-      </c>
-      <c r="P463">
+      <c r="L463" t="s">
+        <v>609</v>
+      </c>
+      <c r="M463">
         <v>6.4229257012328897E-9</v>
       </c>
-      <c r="R463">
-        <v>0</v>
-      </c>
-      <c r="T463">
+      <c r="N463">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B464">
         <v>3.6500000000000003E-8</v>
@@ -15632,7 +15081,7 @@
         <v>20</v>
       </c>
       <c r="H464" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I464">
         <v>2</v>
@@ -15643,23 +15092,17 @@
       <c r="K464">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N464" t="s">
-        <v>644</v>
-      </c>
-      <c r="O464" t="s">
-        <v>345</v>
-      </c>
-      <c r="P464">
+      <c r="L464" t="s">
+        <v>609</v>
+      </c>
+      <c r="M464">
         <v>1.91118207484922E-8</v>
       </c>
-      <c r="R464">
-        <v>0</v>
-      </c>
-      <c r="T464">
+      <c r="N464">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>116</v>
       </c>
@@ -15676,7 +15119,7 @@
         <v>20</v>
       </c>
       <c r="H465" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -15687,23 +15130,17 @@
       <c r="K465">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N465" t="s">
-        <v>644</v>
-      </c>
-      <c r="O465" t="s">
-        <v>259</v>
-      </c>
-      <c r="P465">
+      <c r="L465" t="s">
+        <v>609</v>
+      </c>
+      <c r="M465">
         <v>9.2654649732402505E-4</v>
       </c>
-      <c r="R465">
-        <v>0</v>
-      </c>
-      <c r="T465">
+      <c r="N465">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>184</v>
       </c>
@@ -15720,7 +15157,7 @@
         <v>20</v>
       </c>
       <c r="H466" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="I466">
         <v>2</v>
@@ -15731,25 +15168,19 @@
       <c r="K466">
         <v>0.21587033144922901</v>
       </c>
-      <c r="N466" t="s">
-        <v>644</v>
-      </c>
-      <c r="O466" t="s">
-        <v>647</v>
-      </c>
-      <c r="P466">
+      <c r="L466" t="s">
+        <v>609</v>
+      </c>
+      <c r="M466">
         <v>7.17664459147306E-5</v>
       </c>
-      <c r="R466">
-        <v>0</v>
-      </c>
-      <c r="T466">
+      <c r="N466">
         <v>0.2</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B467">
         <v>1.2500000000000001E-6</v>
@@ -15764,7 +15195,7 @@
         <v>20</v>
       </c>
       <c r="H467" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I467">
         <v>2</v>
@@ -15775,23 +15206,17 @@
       <c r="K467">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N467" t="s">
-        <v>644</v>
-      </c>
-      <c r="O467" t="s">
-        <v>262</v>
-      </c>
-      <c r="P467">
+      <c r="L467" t="s">
+        <v>609</v>
+      </c>
+      <c r="M467">
         <v>4.7308045462582802E-7</v>
       </c>
-      <c r="R467">
-        <v>0</v>
-      </c>
-      <c r="T467">
+      <c r="N467">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>185</v>
       </c>
@@ -15808,7 +15233,7 @@
         <v>20</v>
       </c>
       <c r="H468" t="s">
-        <v>648</v>
+        <v>611</v>
       </c>
       <c r="I468">
         <v>2</v>
@@ -15819,25 +15244,19 @@
       <c r="K468">
         <v>0.21587033144922901</v>
       </c>
-      <c r="N468" t="s">
-        <v>644</v>
-      </c>
-      <c r="O468" t="s">
-        <v>649</v>
-      </c>
-      <c r="P468">
+      <c r="L468" t="s">
+        <v>609</v>
+      </c>
+      <c r="M468">
         <v>7.55436126385394E-8</v>
       </c>
-      <c r="R468">
-        <v>0</v>
-      </c>
-      <c r="T468">
+      <c r="N468">
         <v>0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B469">
         <v>2.3099999999999999E-7</v>
@@ -15852,7 +15271,7 @@
         <v>20</v>
       </c>
       <c r="H469" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I469">
         <v>2</v>
@@ -15863,23 +15282,17 @@
       <c r="K469">
         <v>0.81154174261093925</v>
       </c>
-      <c r="N469" t="s">
-        <v>644</v>
-      </c>
-      <c r="O469" t="s">
-        <v>265</v>
-      </c>
-      <c r="P469">
+      <c r="L469" t="s">
+        <v>609</v>
+      </c>
+      <c r="M469">
         <v>1.10953178654857E-7</v>
       </c>
-      <c r="R469">
-        <v>0</v>
-      </c>
-      <c r="T469">
+      <c r="N469">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>118</v>
       </c>
@@ -15896,7 +15309,7 @@
         <v>20</v>
       </c>
       <c r="H470" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -15907,23 +15320,17 @@
       <c r="K470">
         <v>0.55389529696504913</v>
       </c>
-      <c r="N470" t="s">
-        <v>644</v>
-      </c>
-      <c r="O470" t="s">
-        <v>267</v>
-      </c>
-      <c r="P470">
+      <c r="L470" t="s">
+        <v>609</v>
+      </c>
+      <c r="M470">
         <v>1.5630125721248699E-12</v>
       </c>
-      <c r="R470">
-        <v>0</v>
-      </c>
-      <c r="T470">
+      <c r="N470">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -15948,22 +15355,16 @@
       <c r="K471">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N471" t="s">
-        <v>644</v>
-      </c>
-      <c r="O471" t="s">
-        <v>346</v>
-      </c>
-      <c r="R471">
-        <v>0</v>
-      </c>
-      <c r="T471">
+      <c r="L471" t="s">
+        <v>609</v>
+      </c>
+      <c r="N471">
         <v>0.2</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B472">
         <v>5.2000000000000002E-6</v>
@@ -15978,7 +15379,7 @@
         <v>20</v>
       </c>
       <c r="H472" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -15989,23 +15390,17 @@
       <c r="K472">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N472" t="s">
-        <v>644</v>
-      </c>
-      <c r="O472" t="s">
-        <v>349</v>
-      </c>
-      <c r="P472">
+      <c r="L472" t="s">
+        <v>609</v>
+      </c>
+      <c r="M472">
         <v>4.7174811009129099E-6</v>
       </c>
-      <c r="R472">
-        <v>0</v>
-      </c>
-      <c r="T472">
+      <c r="N472">
         <v>0.2</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>121</v>
       </c>
@@ -16022,7 +15417,7 @@
         <v>20</v>
       </c>
       <c r="H473" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -16033,25 +15428,19 @@
       <c r="K473">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N473" t="s">
-        <v>644</v>
-      </c>
-      <c r="O473" t="s">
-        <v>351</v>
-      </c>
-      <c r="P473">
+      <c r="L473" t="s">
+        <v>609</v>
+      </c>
+      <c r="M473">
         <v>6.6876972018751299E-7</v>
       </c>
-      <c r="R473">
-        <v>0</v>
-      </c>
-      <c r="T473">
+      <c r="N473">
         <v>0.2</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B474">
         <v>1.81E-6</v>
@@ -16066,7 +15455,7 @@
         <v>20</v>
       </c>
       <c r="H474" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I474">
         <v>2</v>
@@ -16077,25 +15466,19 @@
       <c r="K474">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N474" t="s">
-        <v>644</v>
-      </c>
-      <c r="O474" t="s">
-        <v>275</v>
-      </c>
-      <c r="P474">
+      <c r="L474" t="s">
+        <v>609</v>
+      </c>
+      <c r="M474">
         <v>7.9732840401622596E-7</v>
       </c>
-      <c r="R474">
-        <v>0</v>
-      </c>
-      <c r="T474">
+      <c r="N474">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B475">
         <v>2.2400000000000002E-6</v>
@@ -16110,7 +15493,7 @@
         <v>20</v>
       </c>
       <c r="H475" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -16121,25 +15504,19 @@
       <c r="K475">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N475" t="s">
-        <v>644</v>
-      </c>
-      <c r="O475" t="s">
-        <v>354</v>
-      </c>
-      <c r="P475">
+      <c r="L475" t="s">
+        <v>609</v>
+      </c>
+      <c r="M475">
         <v>6.2426905715800202E-7</v>
       </c>
-      <c r="R475">
-        <v>0</v>
-      </c>
-      <c r="T475">
+      <c r="N475">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B476">
         <v>7.0100000000000004E-7</v>
@@ -16154,7 +15531,7 @@
         <v>20</v>
       </c>
       <c r="H476" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -16165,23 +15542,17 @@
       <c r="K476">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N476" t="s">
-        <v>644</v>
-      </c>
-      <c r="O476" t="s">
-        <v>357</v>
-      </c>
-      <c r="P476">
+      <c r="L476" t="s">
+        <v>609</v>
+      </c>
+      <c r="M476">
         <v>2.43482893582134E-7</v>
       </c>
-      <c r="R476">
-        <v>0</v>
-      </c>
-      <c r="T476">
+      <c r="N476">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>26</v>
       </c>
@@ -16198,7 +15569,7 @@
         <v>20</v>
       </c>
       <c r="H477" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I477">
         <v>2</v>
@@ -16209,23 +15580,17 @@
       <c r="K477">
         <v>0.2163330765278394</v>
       </c>
-      <c r="N477" t="s">
-        <v>644</v>
-      </c>
-      <c r="O477" t="s">
-        <v>280</v>
-      </c>
-      <c r="P477">
+      <c r="L477" t="s">
+        <v>609</v>
+      </c>
+      <c r="M477">
         <v>1.01936932435993E-4</v>
       </c>
-      <c r="R477">
-        <v>0</v>
-      </c>
-      <c r="T477">
+      <c r="N477">
         <v>0.2</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>125</v>
       </c>
@@ -16250,22 +15615,16 @@
       <c r="K478">
         <v>0.55425625842204074</v>
       </c>
-      <c r="N478" t="s">
-        <v>644</v>
-      </c>
-      <c r="O478" t="s">
+      <c r="L478" t="s">
+        <v>609</v>
+      </c>
+      <c r="N478">
+        <v>0.54772255750516607</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
         <v>281</v>
-      </c>
-      <c r="R478">
-        <v>0</v>
-      </c>
-      <c r="T478">
-        <v>0.54772255750516607</v>
-      </c>
-    </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
-        <v>282</v>
       </c>
       <c r="B479">
         <v>1.7000000000000001E-4</v>
@@ -16288,22 +15647,16 @@
       <c r="K479">
         <v>0.55389529696504913</v>
       </c>
-      <c r="N479" t="s">
-        <v>644</v>
-      </c>
-      <c r="O479" t="s">
-        <v>283</v>
-      </c>
-      <c r="R479">
-        <v>0</v>
-      </c>
-      <c r="T479">
+      <c r="L479" t="s">
+        <v>609</v>
+      </c>
+      <c r="N479">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B480">
         <v>5.8600000000000001E-5</v>
@@ -16326,22 +15679,16 @@
       <c r="K480">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N480" t="s">
-        <v>644</v>
-      </c>
-      <c r="O480" t="s">
-        <v>359</v>
-      </c>
-      <c r="R480">
-        <v>0</v>
-      </c>
-      <c r="T480">
+      <c r="L480" t="s">
+        <v>609</v>
+      </c>
+      <c r="N480">
         <v>0.2</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B481">
         <v>1.7000000000000001E-4</v>
@@ -16364,22 +15711,16 @@
       <c r="K481">
         <v>0.35608987629529709</v>
       </c>
-      <c r="N481" t="s">
-        <v>644</v>
-      </c>
-      <c r="O481" t="s">
-        <v>361</v>
-      </c>
-      <c r="R481">
-        <v>0</v>
-      </c>
-      <c r="T481">
+      <c r="L481" t="s">
+        <v>609</v>
+      </c>
+      <c r="N481">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B482">
         <v>1.7000000000000001E-4</v>
@@ -16394,7 +15735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>154</v>
       </c>
@@ -16419,20 +15760,14 @@
       <c r="K483">
         <v>0.552630075185924</v>
       </c>
-      <c r="N483" t="s">
-        <v>644</v>
-      </c>
-      <c r="O483" t="s">
-        <v>362</v>
-      </c>
-      <c r="R483">
-        <v>0</v>
-      </c>
-      <c r="T483">
+      <c r="L483" t="s">
+        <v>609</v>
+      </c>
+      <c r="N483">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>128</v>
       </c>
@@ -16449,7 +15784,7 @@
         <v>20</v>
       </c>
       <c r="H484" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I484">
         <v>2</v>
@@ -16460,23 +15795,17 @@
       <c r="K484">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N484" t="s">
-        <v>644</v>
-      </c>
-      <c r="O484" t="s">
-        <v>364</v>
-      </c>
-      <c r="P484">
+      <c r="L484" t="s">
+        <v>609</v>
+      </c>
+      <c r="M484">
         <v>5.2058060269292197E-5</v>
       </c>
-      <c r="R484">
-        <v>0</v>
-      </c>
-      <c r="T484">
+      <c r="N484">
         <v>0.2</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -16493,7 +15822,7 @@
         <v>20</v>
       </c>
       <c r="H485" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -16504,23 +15833,17 @@
       <c r="K485">
         <v>0.20663978319771831</v>
       </c>
-      <c r="N485" t="s">
-        <v>644</v>
-      </c>
-      <c r="O485" t="s">
-        <v>366</v>
-      </c>
-      <c r="P485">
+      <c r="L485" t="s">
+        <v>609</v>
+      </c>
+      <c r="M485">
         <v>1.47176176815489E-3</v>
       </c>
-      <c r="R485">
-        <v>0</v>
-      </c>
-      <c r="T485">
+      <c r="N485">
         <v>0.2</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -16537,7 +15860,7 @@
         <v>20</v>
       </c>
       <c r="H486" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I486">
         <v>2</v>
@@ -16548,23 +15871,17 @@
       <c r="K486">
         <v>0.20712315177207979</v>
       </c>
-      <c r="N486" t="s">
-        <v>644</v>
-      </c>
-      <c r="O486" t="s">
-        <v>286</v>
-      </c>
-      <c r="P486">
+      <c r="L486" t="s">
+        <v>609</v>
+      </c>
+      <c r="M486">
         <v>8.8716527537463005E-3</v>
       </c>
-      <c r="R486">
-        <v>0</v>
-      </c>
-      <c r="T486">
+      <c r="N486">
         <v>0.2</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>84</v>
       </c>
@@ -16589,20 +15906,14 @@
       <c r="K487">
         <v>7.6157731058639086E-2</v>
       </c>
-      <c r="N487" t="s">
-        <v>644</v>
-      </c>
-      <c r="O487" t="s">
-        <v>650</v>
-      </c>
-      <c r="R487">
-        <v>0</v>
-      </c>
-      <c r="T487">
+      <c r="L487" t="s">
+        <v>609</v>
+      </c>
+      <c r="N487">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>84</v>
       </c>
@@ -16619,9 +15930,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B489">
         <v>2.2900000000000001E-5</v>
@@ -16636,7 +15947,7 @@
         <v>20</v>
       </c>
       <c r="H489" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -16647,23 +15958,17 @@
       <c r="K489">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N489" t="s">
-        <v>644</v>
-      </c>
-      <c r="O489" t="s">
-        <v>370</v>
-      </c>
-      <c r="P489">
+      <c r="L489" t="s">
+        <v>609</v>
+      </c>
+      <c r="M489">
         <v>7.8463778271888698E-6</v>
       </c>
-      <c r="R489">
-        <v>0</v>
-      </c>
-      <c r="T489">
+      <c r="N489">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>219</v>
       </c>
@@ -16688,17 +15993,8 @@
       <c r="J490">
         <v>1</v>
       </c>
-      <c r="L490" t="s">
-        <v>651</v>
-      </c>
-      <c r="O490" t="s">
-        <v>652</v>
-      </c>
-      <c r="R490">
-        <v>21640879965.8409</v>
-      </c>
-    </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>132</v>
       </c>
@@ -16718,7 +16014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>161</v>
       </c>
@@ -16747,22 +16043,13 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L492" t="s">
-        <v>653</v>
-      </c>
-      <c r="N492" t="s">
-        <v>644</v>
-      </c>
-      <c r="O492" t="s">
-        <v>654</v>
-      </c>
-      <c r="R492">
-        <v>0</v>
-      </c>
-      <c r="T492">
+        <v>609</v>
+      </c>
+      <c r="N492">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>142</v>
       </c>
@@ -16791,22 +16078,13 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L493" t="s">
-        <v>374</v>
-      </c>
-      <c r="N493" t="s">
-        <v>644</v>
-      </c>
-      <c r="O493" t="s">
-        <v>375</v>
-      </c>
-      <c r="R493">
-        <v>0</v>
-      </c>
-      <c r="T493">
+        <v>609</v>
+      </c>
+      <c r="N493">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>159</v>
       </c>
@@ -16835,22 +16113,13 @@
         <v>7.7459666924148338E-2</v>
       </c>
       <c r="L494" t="s">
-        <v>655</v>
-      </c>
-      <c r="N494" t="s">
-        <v>644</v>
-      </c>
-      <c r="O494" t="s">
-        <v>656</v>
-      </c>
-      <c r="R494">
-        <v>0</v>
-      </c>
-      <c r="T494">
+        <v>609</v>
+      </c>
+      <c r="N494">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>163</v>
       </c>
@@ -16879,22 +16148,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L495" t="s">
-        <v>657</v>
-      </c>
-      <c r="N495" t="s">
-        <v>644</v>
-      </c>
-      <c r="O495" t="s">
-        <v>373</v>
-      </c>
-      <c r="R495">
-        <v>0</v>
-      </c>
-      <c r="T495">
+        <v>609</v>
+      </c>
+      <c r="N495">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -16923,22 +16183,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L496" t="s">
-        <v>658</v>
-      </c>
-      <c r="N496" t="s">
-        <v>644</v>
-      </c>
-      <c r="O496" t="s">
-        <v>659</v>
-      </c>
-      <c r="R496">
-        <v>0</v>
-      </c>
-      <c r="T496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="N496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>143</v>
       </c>
@@ -16967,30 +16218,21 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L497" t="s">
-        <v>376</v>
-      </c>
-      <c r="N497" t="s">
-        <v>644</v>
-      </c>
-      <c r="O497" t="s">
-        <v>377</v>
-      </c>
-      <c r="R497">
-        <v>0</v>
-      </c>
-      <c r="T497">
+        <v>609</v>
+      </c>
+      <c r="N497">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>660</v>
+        <v>612</v>
       </c>
       <c r="B498">
         <v>-4.9799999999999997E-2</v>
       </c>
       <c r="C498" t="s">
-        <v>661</v>
+        <v>613</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -17011,22 +16253,13 @@
         <v>0.08</v>
       </c>
       <c r="L498" t="s">
-        <v>662</v>
-      </c>
-      <c r="N498" t="s">
-        <v>644</v>
-      </c>
-      <c r="O498" t="s">
-        <v>663</v>
-      </c>
-      <c r="R498">
-        <v>256539779.59967801</v>
-      </c>
-      <c r="T498">
+        <v>609</v>
+      </c>
+      <c r="N498">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -17055,22 +16288,13 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L499" t="s">
-        <v>381</v>
-      </c>
-      <c r="N499" t="s">
-        <v>644</v>
-      </c>
-      <c r="O499" t="s">
-        <v>382</v>
-      </c>
-      <c r="R499">
-        <v>2278571510.5339298</v>
-      </c>
-      <c r="T499">
+        <v>609</v>
+      </c>
+      <c r="N499">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>165</v>
       </c>
@@ -17090,7 +16314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -17110,7 +16334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>166</v>
       </c>
@@ -17139,22 +16363,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L502" t="s">
-        <v>664</v>
-      </c>
-      <c r="N502" t="s">
-        <v>644</v>
-      </c>
-      <c r="O502" t="s">
-        <v>665</v>
-      </c>
-      <c r="R502">
-        <v>0</v>
-      </c>
-      <c r="T502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="N502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>160</v>
       </c>
@@ -17183,22 +16398,13 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L503" t="s">
-        <v>666</v>
-      </c>
-      <c r="N503" t="s">
-        <v>644</v>
-      </c>
-      <c r="O503" t="s">
-        <v>667</v>
-      </c>
-      <c r="R503">
-        <v>0</v>
-      </c>
-      <c r="T503">
+        <v>609</v>
+      </c>
+      <c r="N503">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>167</v>
       </c>
@@ -17227,22 +16433,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L504" t="s">
-        <v>319</v>
-      </c>
-      <c r="N504" t="s">
-        <v>644</v>
-      </c>
-      <c r="O504" t="s">
-        <v>320</v>
-      </c>
-      <c r="R504">
-        <v>0</v>
-      </c>
-      <c r="T504">
+        <v>609</v>
+      </c>
+      <c r="N504">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>168</v>
       </c>
@@ -17271,22 +16468,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L505" t="s">
-        <v>668</v>
-      </c>
-      <c r="N505" t="s">
-        <v>644</v>
-      </c>
-      <c r="O505" t="s">
-        <v>669</v>
-      </c>
-      <c r="R505">
-        <v>0</v>
-      </c>
-      <c r="T505">
+        <v>609</v>
+      </c>
+      <c r="N505">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>100</v>
       </c>
@@ -17306,7 +16494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -17326,7 +16514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>146</v>
       </c>
@@ -17355,22 +16543,13 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L508" t="s">
-        <v>321</v>
-      </c>
-      <c r="N508" t="s">
-        <v>644</v>
-      </c>
-      <c r="O508" t="s">
-        <v>323</v>
-      </c>
-      <c r="R508">
-        <v>158912664.313822</v>
-      </c>
-      <c r="T508">
+        <v>609</v>
+      </c>
+      <c r="N508">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>169</v>
       </c>
@@ -17399,22 +16578,13 @@
         <v>5.2915026221291808E-2</v>
       </c>
       <c r="L509" t="s">
-        <v>670</v>
-      </c>
-      <c r="N509" t="s">
-        <v>644</v>
-      </c>
-      <c r="O509" t="s">
-        <v>671</v>
-      </c>
-      <c r="R509">
-        <v>0</v>
-      </c>
-      <c r="T509">
+        <v>609</v>
+      </c>
+      <c r="N509">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>170</v>
       </c>
@@ -17443,22 +16613,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L510" t="s">
-        <v>672</v>
-      </c>
-      <c r="N510" t="s">
-        <v>644</v>
-      </c>
-      <c r="O510" t="s">
-        <v>673</v>
-      </c>
-      <c r="R510">
-        <v>0</v>
-      </c>
-      <c r="T510">
+        <v>609</v>
+      </c>
+      <c r="N510">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>147</v>
       </c>
@@ -17478,7 +16639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>171</v>
       </c>
@@ -17507,22 +16668,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L512" t="s">
-        <v>674</v>
-      </c>
-      <c r="N512" t="s">
-        <v>644</v>
-      </c>
-      <c r="O512" t="s">
-        <v>675</v>
-      </c>
-      <c r="R512">
-        <v>0</v>
-      </c>
-      <c r="T512">
+        <v>609</v>
+      </c>
+      <c r="N512">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>148</v>
       </c>
@@ -17551,22 +16703,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L513" t="s">
-        <v>329</v>
-      </c>
-      <c r="N513" t="s">
-        <v>644</v>
-      </c>
-      <c r="O513" t="s">
-        <v>330</v>
-      </c>
-      <c r="R513">
-        <v>0</v>
-      </c>
-      <c r="T513">
+        <v>609</v>
+      </c>
+      <c r="N513">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>172</v>
       </c>
@@ -17595,22 +16738,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L514" t="s">
-        <v>676</v>
-      </c>
-      <c r="N514" t="s">
-        <v>644</v>
-      </c>
-      <c r="O514" t="s">
-        <v>677</v>
-      </c>
-      <c r="R514">
-        <v>0</v>
-      </c>
-      <c r="T514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="N514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>149</v>
       </c>
@@ -17639,22 +16773,13 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L515" t="s">
-        <v>331</v>
-      </c>
-      <c r="N515" t="s">
-        <v>644</v>
-      </c>
-      <c r="O515" t="s">
-        <v>332</v>
-      </c>
-      <c r="R515">
-        <v>0</v>
-      </c>
-      <c r="T515">
+        <v>609</v>
+      </c>
+      <c r="N515">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>150</v>
       </c>
@@ -17674,7 +16799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>114</v>
       </c>
@@ -17703,24 +16828,15 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L517" t="s">
-        <v>490</v>
-      </c>
-      <c r="N517" t="s">
-        <v>644</v>
-      </c>
-      <c r="O517" t="s">
-        <v>492</v>
-      </c>
-      <c r="R517">
-        <v>481.12823943976298</v>
-      </c>
-      <c r="T517">
+        <v>609</v>
+      </c>
+      <c r="N517">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>678</v>
+        <v>614</v>
       </c>
       <c r="B518">
         <v>-9.5999999999999992E-3</v>
@@ -17729,7 +16845,7 @@
         <v>135</v>
       </c>
       <c r="D518" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E518" t="s">
         <v>7</v>
@@ -17741,6 +16857,7 @@
   </sheetData>
   <autoFilter ref="A1:T518" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
